--- a/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9768471022790017</v>
+        <v>1.010310908033305</v>
       </c>
       <c r="D2">
-        <v>0.9997449522283973</v>
+        <v>1.030339473682457</v>
       </c>
       <c r="E2">
-        <v>0.9855811450154213</v>
+        <v>1.012895606815467</v>
       </c>
       <c r="F2">
-        <v>0.973724323444067</v>
+        <v>1.030632306698104</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036388089202898</v>
+        <v>1.051539915100114</v>
       </c>
       <c r="J2">
-        <v>0.999743075067337</v>
+        <v>1.032187535293204</v>
       </c>
       <c r="K2">
-        <v>1.011207841415348</v>
+        <v>1.041391713393405</v>
       </c>
       <c r="L2">
-        <v>0.9972450807388344</v>
+        <v>1.024178161855544</v>
       </c>
       <c r="M2">
-        <v>0.9855622774378165</v>
+        <v>1.041680763328144</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9858122629377633</v>
+        <v>1.019238622025088</v>
       </c>
       <c r="D3">
-        <v>1.006335489131444</v>
+        <v>1.037585402352059</v>
       </c>
       <c r="E3">
-        <v>0.9933544205448398</v>
+        <v>1.020649956878268</v>
       </c>
       <c r="F3">
-        <v>0.983673555462533</v>
+        <v>1.038805858342035</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039227574517774</v>
+        <v>1.055012396154014</v>
       </c>
       <c r="J3">
-        <v>1.006697317111833</v>
+        <v>1.039218217042214</v>
       </c>
       <c r="K3">
-        <v>1.016887942950281</v>
+        <v>1.047758937907597</v>
       </c>
       <c r="L3">
-        <v>1.004073044983911</v>
+        <v>1.031025263359046</v>
       </c>
       <c r="M3">
-        <v>0.9945196881962189</v>
+        <v>1.048965167544039</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9913974674751169</v>
+        <v>1.024808393594698</v>
       </c>
       <c r="D4">
-        <v>1.010443042320164</v>
+        <v>1.042108984664423</v>
       </c>
       <c r="E4">
-        <v>0.9982029249566152</v>
+        <v>1.025487843859836</v>
       </c>
       <c r="F4">
-        <v>0.9898783509785277</v>
+        <v>1.043912872946142</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040978541569194</v>
+        <v>1.057163634553518</v>
       </c>
       <c r="J4">
-        <v>1.011023816474243</v>
+        <v>1.043598104568452</v>
       </c>
       <c r="K4">
-        <v>1.02041704198402</v>
+        <v>1.051724426686893</v>
       </c>
       <c r="L4">
-        <v>1.008323087589778</v>
+        <v>1.035288085357803</v>
       </c>
       <c r="M4">
-        <v>1.000100490186757</v>
+        <v>1.053508693134998</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9936973955463388</v>
+        <v>1.027103671907202</v>
       </c>
       <c r="D5">
-        <v>1.012134718684822</v>
+        <v>1.043973730218199</v>
       </c>
       <c r="E5">
-        <v>1.000200776414831</v>
+        <v>1.027481461648929</v>
       </c>
       <c r="F5">
-        <v>0.9924350634206486</v>
+        <v>1.046019188092394</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041695154234913</v>
+        <v>1.058046445680124</v>
       </c>
       <c r="J5">
-        <v>1.012803921465184</v>
+        <v>1.045401438450924</v>
       </c>
       <c r="K5">
-        <v>1.021867877640029</v>
+        <v>1.053356850693889</v>
       </c>
       <c r="L5">
-        <v>1.010072239462909</v>
+        <v>1.037042570853605</v>
       </c>
       <c r="M5">
-        <v>1.00239873976942</v>
+        <v>1.055380711966845</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9940808404144896</v>
+        <v>1.02748643694489</v>
       </c>
       <c r="D6">
-        <v>1.012416764094631</v>
+        <v>1.044284730327174</v>
       </c>
       <c r="E6">
-        <v>1.000533931756239</v>
+        <v>1.027813915570979</v>
       </c>
       <c r="F6">
-        <v>0.9928614182764236</v>
+        <v>1.0463705401269</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041814365564346</v>
+        <v>1.058193445086417</v>
       </c>
       <c r="J6">
-        <v>1.013100610665186</v>
+        <v>1.045702069944918</v>
       </c>
       <c r="K6">
-        <v>1.022109616408885</v>
+        <v>1.053628972206943</v>
       </c>
       <c r="L6">
-        <v>1.010363799395952</v>
+        <v>1.037335020694923</v>
       </c>
       <c r="M6">
-        <v>1.002781913577085</v>
+        <v>1.055692870168845</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9914283837485318</v>
+        <v>1.024839240833379</v>
       </c>
       <c r="D7">
-        <v>1.010465781624768</v>
+        <v>1.042134043584838</v>
       </c>
       <c r="E7">
-        <v>0.9982297756622275</v>
+        <v>1.02551463727868</v>
       </c>
       <c r="F7">
-        <v>0.9899127124072745</v>
+        <v>1.043941173896135</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04098819211053</v>
+        <v>1.057175513804417</v>
       </c>
       <c r="J7">
-        <v>1.011047751195557</v>
+        <v>1.043622346774968</v>
       </c>
       <c r="K7">
-        <v>1.020436554225571</v>
+        <v>1.051746372536029</v>
       </c>
       <c r="L7">
-        <v>1.008346604125497</v>
+        <v>1.035311673469325</v>
       </c>
       <c r="M7">
-        <v>1.000131383324588</v>
+        <v>1.053533853513659</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9799239020351928</v>
+        <v>1.013373053555207</v>
       </c>
       <c r="D8">
-        <v>1.002006310559901</v>
+        <v>1.032824050578063</v>
       </c>
       <c r="E8">
-        <v>0.9882475858745683</v>
+        <v>1.015555207064817</v>
       </c>
       <c r="F8">
-        <v>0.9771375184530392</v>
+        <v>1.033434058787181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037366344703511</v>
+        <v>1.052734120759237</v>
       </c>
       <c r="J8">
-        <v>1.002130942098209</v>
+        <v>1.03460031816697</v>
       </c>
       <c r="K8">
-        <v>1.013159173507518</v>
+        <v>1.043577023804504</v>
       </c>
       <c r="L8">
-        <v>0.9995891400829846</v>
+        <v>1.026528516294599</v>
       </c>
       <c r="M8">
-        <v>0.9886363485317686</v>
+        <v>1.044179416653638</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9578127456616328</v>
+        <v>0.9914120366114324</v>
       </c>
       <c r="D9">
-        <v>0.9857715718831808</v>
+        <v>1.01502479512452</v>
       </c>
       <c r="E9">
-        <v>0.9691164914203465</v>
+        <v>0.9964861529353335</v>
       </c>
       <c r="F9">
-        <v>0.9526336853051283</v>
+        <v>1.013380358598675</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030261558455318</v>
+        <v>1.044106323561047</v>
       </c>
       <c r="J9">
-        <v>0.9849485459086338</v>
+        <v>1.017271745943527</v>
       </c>
       <c r="K9">
-        <v>0.9990997922052599</v>
+        <v>1.027878719671568</v>
       </c>
       <c r="L9">
-        <v>0.9827313272602805</v>
+        <v>1.009636498282905</v>
       </c>
       <c r="M9">
-        <v>0.966545027393904</v>
+        <v>1.026260015852739</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9415277475681764</v>
+        <v>0.9753111674016313</v>
       </c>
       <c r="D10">
-        <v>0.973847419143642</v>
+        <v>1.002008761774039</v>
       </c>
       <c r="E10">
-        <v>0.955073839154956</v>
+        <v>0.9825179068670925</v>
       </c>
       <c r="F10">
-        <v>0.9346130499863573</v>
+        <v>0.9987371823267622</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02493807424316</v>
+        <v>1.037703256124275</v>
       </c>
       <c r="J10">
-        <v>0.9722700013694349</v>
+        <v>1.004539765436697</v>
       </c>
       <c r="K10">
-        <v>0.9887054856764913</v>
+        <v>1.016341841877544</v>
       </c>
       <c r="L10">
-        <v>0.9703045608705216</v>
+        <v>0.9972101465794938</v>
       </c>
       <c r="M10">
-        <v>0.950272547748514</v>
+        <v>1.013129274831038</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9340227209488671</v>
+        <v>0.967915135891242</v>
       </c>
       <c r="D11">
-        <v>0.9683643923084524</v>
+        <v>0.9960409315211688</v>
       </c>
       <c r="E11">
-        <v>0.948616351710749</v>
+        <v>0.9761067242759718</v>
       </c>
       <c r="F11">
-        <v>0.9263122784148317</v>
+        <v>0.9920278838837945</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022465240077033</v>
+        <v>1.034745031978396</v>
       </c>
       <c r="J11">
-        <v>0.9664233426737201</v>
+        <v>0.9986863985086211</v>
       </c>
       <c r="K11">
-        <v>0.9839086301748852</v>
+        <v>1.011037898292044</v>
       </c>
       <c r="L11">
-        <v>0.9645770108442658</v>
+        <v>0.9914937516304779</v>
       </c>
       <c r="M11">
-        <v>0.942771822557103</v>
+        <v>1.007101725075038</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9311576480962388</v>
+        <v>0.9650960599621101</v>
       </c>
       <c r="D12">
-        <v>0.9662735260075243</v>
+        <v>0.9937682273595828</v>
       </c>
       <c r="E12">
-        <v>0.9461535965426119</v>
+        <v>0.9736640520659749</v>
       </c>
       <c r="F12">
-        <v>0.9231438094139822</v>
+        <v>0.9894734439296745</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021518513931092</v>
+        <v>1.033615081933307</v>
       </c>
       <c r="J12">
-        <v>0.9641910025292426</v>
+        <v>0.9964547676164405</v>
       </c>
       <c r="K12">
-        <v>0.982076709430443</v>
+        <v>1.009015800153409</v>
       </c>
       <c r="L12">
-        <v>0.9623906083878901</v>
+        <v>0.9893138192717358</v>
       </c>
       <c r="M12">
-        <v>0.9399080645787325</v>
+        <v>1.004805133605994</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.93177588577021</v>
+        <v>0.9657041600509259</v>
       </c>
       <c r="D13">
-        <v>0.9667245903154063</v>
+        <v>0.9942583743992666</v>
       </c>
       <c r="E13">
-        <v>0.9466849063313337</v>
+        <v>0.9741909083906327</v>
       </c>
       <c r="F13">
-        <v>0.9238275023507575</v>
+        <v>0.9900243243712115</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021722920990314</v>
+        <v>1.033858927441953</v>
       </c>
       <c r="J13">
-        <v>0.9646727189321062</v>
+        <v>0.9969361726078291</v>
       </c>
       <c r="K13">
-        <v>0.982472035694587</v>
+        <v>1.009452001066615</v>
       </c>
       <c r="L13">
-        <v>0.9628623909893855</v>
+        <v>0.9897840953075728</v>
       </c>
       <c r="M13">
-        <v>0.9405260352474533</v>
+        <v>1.005300485252513</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9337875315137117</v>
+        <v>0.9676836284650709</v>
       </c>
       <c r="D14">
-        <v>0.9681927069186549</v>
+        <v>0.9958542506670262</v>
       </c>
       <c r="E14">
-        <v>0.9484141372359923</v>
+        <v>0.9759061056948266</v>
       </c>
       <c r="F14">
-        <v>0.9260521774732409</v>
+        <v>0.9918180486260297</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022387578270064</v>
+        <v>1.034652285928342</v>
       </c>
       <c r="J14">
-        <v>0.9662400992337088</v>
+        <v>0.9985031432927887</v>
       </c>
       <c r="K14">
-        <v>0.983758263008611</v>
+        <v>1.010871847666799</v>
       </c>
       <c r="L14">
-        <v>0.9643975288706423</v>
+        <v>0.9913147522672008</v>
       </c>
       <c r="M14">
-        <v>0.9425367483733024</v>
+        <v>1.006913105731108</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9350164127630515</v>
+        <v>0.9688934536703175</v>
       </c>
       <c r="D15">
-        <v>0.9690898711264684</v>
+        <v>0.9968299014976415</v>
       </c>
       <c r="E15">
-        <v>0.9494708216763219</v>
+        <v>0.9769545528943943</v>
       </c>
       <c r="F15">
-        <v>0.9274112370310574</v>
+        <v>0.9929147367884154</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022793258170541</v>
+        <v>1.03513686778601</v>
       </c>
       <c r="J15">
-        <v>0.9671975458814165</v>
+        <v>0.9994607877243367</v>
       </c>
       <c r="K15">
-        <v>0.9845439153343375</v>
+        <v>1.011739588255346</v>
       </c>
       <c r="L15">
-        <v>0.9653353405599172</v>
+        <v>0.9922501355872494</v>
       </c>
       <c r="M15">
-        <v>0.9437650134804799</v>
+        <v>1.007898840835304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9420155284631461</v>
+        <v>0.9757924189295056</v>
       </c>
       <c r="D16">
-        <v>0.9742040708818523</v>
+        <v>1.002397337023947</v>
       </c>
       <c r="E16">
-        <v>0.9554938499446101</v>
+        <v>0.9829352013041415</v>
       </c>
       <c r="F16">
-        <v>0.9351526155667044</v>
+        <v>0.9991741256823958</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025098410545687</v>
+        <v>1.037895408466108</v>
       </c>
       <c r="J16">
-        <v>0.9726499385902094</v>
+        <v>1.004920551345982</v>
       </c>
       <c r="K16">
-        <v>0.9890171396485373</v>
+        <v>1.016686890389157</v>
       </c>
       <c r="L16">
-        <v>0.970676820326861</v>
+        <v>0.9975819498227042</v>
       </c>
       <c r="M16">
-        <v>0.9507600105800427</v>
+        <v>1.013521585928625</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9462784919325287</v>
+        <v>0.9800010837686803</v>
       </c>
       <c r="D17">
-        <v>0.9773224487475636</v>
+        <v>1.005796806864684</v>
       </c>
       <c r="E17">
-        <v>0.9591661454474338</v>
+        <v>0.9865851527541524</v>
       </c>
       <c r="F17">
-        <v>0.9398685903902178</v>
+        <v>1.00299725319234</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026497516705943</v>
+        <v>1.039573949130207</v>
       </c>
       <c r="J17">
-        <v>0.9759700102224759</v>
+        <v>1.008250093343722</v>
       </c>
       <c r="K17">
-        <v>0.9917401347229594</v>
+        <v>1.019703954773809</v>
       </c>
       <c r="L17">
-        <v>0.9739301361304324</v>
+        <v>1.00083255353969</v>
       </c>
       <c r="M17">
-        <v>0.9550200203249662</v>
+        <v>1.016952933005909</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9487219583478873</v>
+        <v>0.9824156121687155</v>
       </c>
       <c r="D18">
-        <v>0.9791109645246271</v>
+        <v>1.007748113155291</v>
       </c>
       <c r="E18">
-        <v>0.961272342963014</v>
+        <v>0.9886796136646367</v>
       </c>
       <c r="F18">
-        <v>0.9425721175033446</v>
+        <v>1.00519217033788</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027297638541313</v>
+        <v>1.040535347346582</v>
       </c>
       <c r="J18">
-        <v>0.9778726687843375</v>
+        <v>1.010159801123743</v>
       </c>
       <c r="K18">
-        <v>0.9933002823353114</v>
+        <v>1.021434431033021</v>
       </c>
       <c r="L18">
-        <v>0.9757948165544637</v>
+        <v>1.002696655297774</v>
       </c>
       <c r="M18">
-        <v>0.9574616652360303</v>
+        <v>1.018921878004556</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9495480676548229</v>
+        <v>0.9832322893441576</v>
       </c>
       <c r="D19">
-        <v>0.979715818072133</v>
+        <v>1.008408276370353</v>
       </c>
       <c r="E19">
-        <v>0.96198463694926</v>
+        <v>0.9893881061839181</v>
       </c>
       <c r="F19">
-        <v>0.9434862247605297</v>
+        <v>1.005934826014847</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027567835703176</v>
+        <v>1.040860252134135</v>
       </c>
       <c r="J19">
-        <v>0.9785158711169682</v>
+        <v>1.01080564715146</v>
       </c>
       <c r="K19">
-        <v>0.993827636314166</v>
+        <v>1.022019659941452</v>
       </c>
       <c r="L19">
-        <v>0.9764252271511905</v>
+        <v>1.003327021631096</v>
       </c>
       <c r="M19">
-        <v>0.9582871396651418</v>
+        <v>1.019587898946683</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9458256300125785</v>
+        <v>0.9795537578379004</v>
       </c>
       <c r="D20">
-        <v>0.9769910597259045</v>
+        <v>1.005435379866955</v>
       </c>
       <c r="E20">
-        <v>0.9587758946673488</v>
+        <v>0.9861971604285142</v>
       </c>
       <c r="F20">
-        <v>0.9393675640082657</v>
+        <v>1.002590739081677</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026349075867092</v>
+        <v>1.039395706497443</v>
       </c>
       <c r="J20">
-        <v>0.9756173491526074</v>
+        <v>1.007896253861104</v>
       </c>
       <c r="K20">
-        <v>0.9914509302456431</v>
+        <v>1.019383323281934</v>
       </c>
       <c r="L20">
-        <v>0.9735845369050662</v>
+        <v>1.000487137327238</v>
       </c>
       <c r="M20">
-        <v>0.9545674862344401</v>
+        <v>1.016588185925501</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9331973712729256</v>
+        <v>0.967102780824536</v>
       </c>
       <c r="D21">
-        <v>0.9677619357969953</v>
+        <v>0.9953859052669423</v>
       </c>
       <c r="E21">
-        <v>0.9479067608064615</v>
+        <v>0.9754027747760272</v>
       </c>
       <c r="F21">
-        <v>0.9253995120884083</v>
+        <v>0.9912916233926605</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022192658973392</v>
+        <v>1.034419550067124</v>
       </c>
       <c r="J21">
-        <v>0.9657802819696769</v>
+        <v>0.9980433511907937</v>
       </c>
       <c r="K21">
-        <v>0.983380936851137</v>
+        <v>1.010455223553693</v>
       </c>
       <c r="L21">
-        <v>0.9639471577654588</v>
+        <v>0.9908656298537849</v>
       </c>
       <c r="M21">
-        <v>0.9419468716764394</v>
+        <v>1.006439878398067</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9248037994560625</v>
+        <v>0.9588533922359862</v>
       </c>
       <c r="D22">
-        <v>0.9616414662278755</v>
+        <v>0.9887395669147723</v>
       </c>
       <c r="E22">
-        <v>0.9406968088868387</v>
+        <v>0.9682570900503733</v>
       </c>
       <c r="F22">
-        <v>0.9161175149298478</v>
+        <v>0.9838225138597096</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019414212767849</v>
+        <v>1.031108644080968</v>
       </c>
       <c r="J22">
-        <v>0.9592399527649158</v>
+        <v>0.9915121454087189</v>
       </c>
       <c r="K22">
-        <v>0.9780131351573997</v>
+        <v>1.00453744501986</v>
       </c>
       <c r="L22">
-        <v>0.9575423075177139</v>
+        <v>0.9844847440138926</v>
       </c>
       <c r="M22">
-        <v>0.9335563833829073</v>
+        <v>0.9997214094462205</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9292999917230513</v>
+        <v>0.9632695789759829</v>
       </c>
       <c r="D23">
-        <v>0.9649185623374016</v>
+        <v>0.9922963490469363</v>
       </c>
       <c r="E23">
-        <v>0.944557517158306</v>
+        <v>0.9720817634301527</v>
       </c>
       <c r="F23">
-        <v>0.9210895102445152</v>
+        <v>0.9878192758578805</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020903940362248</v>
+        <v>1.032882333491171</v>
       </c>
       <c r="J23">
-        <v>0.9627435249793246</v>
+        <v>0.9950087593667356</v>
       </c>
       <c r="K23">
-        <v>0.9808887703346214</v>
+        <v>1.00770558700138</v>
       </c>
       <c r="L23">
-        <v>0.9609730485807172</v>
+        <v>0.9879011635437025</v>
       </c>
       <c r="M23">
-        <v>0.9380511528204781</v>
+        <v>1.003317452077638</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9460303911715073</v>
+        <v>0.9797560091600561</v>
       </c>
       <c r="D24">
-        <v>0.9771408935918503</v>
+        <v>1.005598790209271</v>
       </c>
       <c r="E24">
-        <v>0.958952342244604</v>
+        <v>0.9863725835604639</v>
       </c>
       <c r="F24">
-        <v>0.939594101424033</v>
+        <v>1.002774533113358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026416198970716</v>
+        <v>1.039476301026621</v>
       </c>
       <c r="J24">
-        <v>0.9757768057003354</v>
+        <v>1.008056238225646</v>
       </c>
       <c r="K24">
-        <v>0.9915816958097704</v>
+        <v>1.019528293064936</v>
       </c>
       <c r="L24">
-        <v>0.973740799557665</v>
+        <v>1.000643314236044</v>
       </c>
       <c r="M24">
-        <v>0.9547720995579027</v>
+        <v>1.016753099406423</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9637756198163842</v>
+        <v>0.9973238113530493</v>
       </c>
       <c r="D25">
-        <v>0.9901454619655415</v>
+        <v>1.019811493762128</v>
       </c>
       <c r="E25">
-        <v>0.9742685332583799</v>
+        <v>1.001617987872874</v>
       </c>
       <c r="F25">
-        <v>0.9592367537231086</v>
+        <v>1.018769569735304</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032193393635809</v>
+        <v>1.046442348973591</v>
       </c>
       <c r="J25">
-        <v>0.9895867519019631</v>
+        <v>1.021941576800522</v>
       </c>
       <c r="K25">
-        <v>1.002898707799917</v>
+        <v>1.032109853834183</v>
       </c>
       <c r="L25">
-        <v>0.9872798780514932</v>
+        <v>1.014191238481238</v>
       </c>
       <c r="M25">
-        <v>0.9725026424133308</v>
+        <v>1.031083335676925</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010310908033305</v>
+        <v>1.051979028218825</v>
       </c>
       <c r="D2">
-        <v>1.030339473682457</v>
+        <v>1.06529466257157</v>
       </c>
       <c r="E2">
-        <v>1.012895606815467</v>
+        <v>1.061028986162249</v>
       </c>
       <c r="F2">
-        <v>1.030632306698104</v>
+        <v>1.071949739308831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051539915100114</v>
+        <v>1.068144883941303</v>
       </c>
       <c r="J2">
-        <v>1.032187535293204</v>
+        <v>1.072708911627878</v>
       </c>
       <c r="K2">
-        <v>1.041391713393405</v>
+        <v>1.075913546561472</v>
       </c>
       <c r="L2">
-        <v>1.024178161855544</v>
+        <v>1.071698855102646</v>
       </c>
       <c r="M2">
-        <v>1.041680763328144</v>
+        <v>1.082490082238043</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019238622025088</v>
+        <v>1.057854055022744</v>
       </c>
       <c r="D3">
-        <v>1.037585402352059</v>
+        <v>1.069974661140619</v>
       </c>
       <c r="E3">
-        <v>1.020649956878268</v>
+        <v>1.065985787647056</v>
       </c>
       <c r="F3">
-        <v>1.038805858342035</v>
+        <v>1.077060693932346</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055012396154014</v>
+        <v>1.070357696595929</v>
       </c>
       <c r="J3">
-        <v>1.039218217042214</v>
+        <v>1.076882853565804</v>
       </c>
       <c r="K3">
-        <v>1.047758937907597</v>
+        <v>1.079784148605834</v>
       </c>
       <c r="L3">
-        <v>1.031025263359046</v>
+        <v>1.075838642241407</v>
       </c>
       <c r="M3">
-        <v>1.048965167544039</v>
+        <v>1.086794111891448</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024808393594698</v>
+        <v>1.061567679239448</v>
       </c>
       <c r="D4">
-        <v>1.042108984664423</v>
+        <v>1.072935494247827</v>
       </c>
       <c r="E4">
-        <v>1.025487843859836</v>
+        <v>1.069123815775926</v>
       </c>
       <c r="F4">
-        <v>1.043912872946142</v>
+        <v>1.080296363549696</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057163634553518</v>
+        <v>1.071747279418289</v>
       </c>
       <c r="J4">
-        <v>1.043598104568452</v>
+        <v>1.079517623800551</v>
       </c>
       <c r="K4">
-        <v>1.051724426686893</v>
+        <v>1.08222667537112</v>
       </c>
       <c r="L4">
-        <v>1.035288085357803</v>
+        <v>1.078453856232782</v>
       </c>
       <c r="M4">
-        <v>1.053508693134998</v>
+        <v>1.089513445633884</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027103671907202</v>
+        <v>1.063108749085884</v>
       </c>
       <c r="D5">
-        <v>1.043973730218199</v>
+        <v>1.074164735186019</v>
       </c>
       <c r="E5">
-        <v>1.027481461648929</v>
+        <v>1.070427127228325</v>
       </c>
       <c r="F5">
-        <v>1.046019188092394</v>
+        <v>1.081640240417431</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058046445680124</v>
+        <v>1.072321690816952</v>
       </c>
       <c r="J5">
-        <v>1.045401438450924</v>
+        <v>1.080610090173564</v>
       </c>
       <c r="K5">
-        <v>1.053356850693889</v>
+        <v>1.083239238631694</v>
       </c>
       <c r="L5">
-        <v>1.037042570853605</v>
+        <v>1.079538689323582</v>
       </c>
       <c r="M5">
-        <v>1.055380711966845</v>
+        <v>1.090641555090106</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02748643694489</v>
+        <v>1.063366345987765</v>
       </c>
       <c r="D6">
-        <v>1.044284730327174</v>
+        <v>1.07437023984658</v>
       </c>
       <c r="E6">
-        <v>1.027813915570979</v>
+        <v>1.070645044904143</v>
       </c>
       <c r="F6">
-        <v>1.0463705401269</v>
+        <v>1.081864941468496</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058193445086417</v>
+        <v>1.072417573839244</v>
       </c>
       <c r="J6">
-        <v>1.045702069944918</v>
+        <v>1.08079264664748</v>
       </c>
       <c r="K6">
-        <v>1.053628972206943</v>
+        <v>1.083408431325932</v>
       </c>
       <c r="L6">
-        <v>1.037335020694923</v>
+        <v>1.079719998044572</v>
       </c>
       <c r="M6">
-        <v>1.055692870168845</v>
+        <v>1.090830101619953</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024839240833379</v>
+        <v>1.061588349056515</v>
       </c>
       <c r="D7">
-        <v>1.042134043584838</v>
+        <v>1.072951979469025</v>
       </c>
       <c r="E7">
-        <v>1.02551463727868</v>
+        <v>1.069141292343956</v>
       </c>
       <c r="F7">
-        <v>1.043941173896135</v>
+        <v>1.080314384025883</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057175513804417</v>
+        <v>1.07175499267402</v>
       </c>
       <c r="J7">
-        <v>1.043622346774968</v>
+        <v>1.079532280284954</v>
       </c>
       <c r="K7">
-        <v>1.051746372536029</v>
+        <v>1.082240260651397</v>
       </c>
       <c r="L7">
-        <v>1.035311673469325</v>
+        <v>1.078468408436426</v>
       </c>
       <c r="M7">
-        <v>1.053533853513659</v>
+        <v>1.089528578019288</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013373053555207</v>
+        <v>1.05398328842579</v>
       </c>
       <c r="D8">
-        <v>1.032824050578063</v>
+        <v>1.066890658592101</v>
       </c>
       <c r="E8">
-        <v>1.015555207064817</v>
+        <v>1.06271894800653</v>
       </c>
       <c r="F8">
-        <v>1.033434058787181</v>
+        <v>1.073692247059759</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052734120759237</v>
+        <v>1.068901679024155</v>
       </c>
       <c r="J8">
-        <v>1.03460031816697</v>
+        <v>1.074133576987198</v>
       </c>
       <c r="K8">
-        <v>1.043577023804504</v>
+        <v>1.077234829257367</v>
       </c>
       <c r="L8">
-        <v>1.026528516294599</v>
+        <v>1.073111437826072</v>
       </c>
       <c r="M8">
-        <v>1.044179416653638</v>
+        <v>1.083958630714336</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9914120366114324</v>
+        <v>1.039865020305687</v>
       </c>
       <c r="D9">
-        <v>1.01502479512452</v>
+        <v>1.055661917958435</v>
       </c>
       <c r="E9">
-        <v>0.9964861529353335</v>
+        <v>1.050837627499234</v>
       </c>
       <c r="F9">
-        <v>1.013380358598675</v>
+        <v>1.061441723469105</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044106323561047</v>
+        <v>1.063533419499061</v>
       </c>
       <c r="J9">
-        <v>1.017271745943527</v>
+        <v>1.064084529809115</v>
       </c>
       <c r="K9">
-        <v>1.027878719671568</v>
+        <v>1.067912151034699</v>
       </c>
       <c r="L9">
-        <v>1.009636498282905</v>
+        <v>1.06315643650218</v>
       </c>
       <c r="M9">
-        <v>1.026260015852739</v>
+        <v>1.073610834230915</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9753111674016313</v>
+        <v>1.029904048999063</v>
       </c>
       <c r="D10">
-        <v>1.002008761774039</v>
+        <v>1.047760153504531</v>
       </c>
       <c r="E10">
-        <v>0.9825179068670925</v>
+        <v>1.04248713497977</v>
       </c>
       <c r="F10">
-        <v>0.9987371823267622</v>
+        <v>1.052832038800631</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037703256124275</v>
+        <v>1.059700387347621</v>
       </c>
       <c r="J10">
-        <v>1.004539765436697</v>
+        <v>1.056979463353322</v>
       </c>
       <c r="K10">
-        <v>1.016341841877544</v>
+        <v>1.061317495301493</v>
       </c>
       <c r="L10">
-        <v>0.9972101465794938</v>
+        <v>1.056129425217609</v>
       </c>
       <c r="M10">
-        <v>1.013129274831038</v>
+        <v>1.066308700438732</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.967915135891242</v>
+        <v>1.025444087286793</v>
       </c>
       <c r="D11">
-        <v>0.9960409315211688</v>
+        <v>1.044228152492266</v>
       </c>
       <c r="E11">
-        <v>0.9761067242759718</v>
+        <v>1.038756929780063</v>
       </c>
       <c r="F11">
-        <v>0.9920278838837945</v>
+        <v>1.048986125280278</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034745031978396</v>
+        <v>1.057974052735019</v>
       </c>
       <c r="J11">
-        <v>0.9986863985086211</v>
+        <v>1.053795376619003</v>
       </c>
       <c r="K11">
-        <v>1.011037898292044</v>
+        <v>1.058361559096635</v>
       </c>
       <c r="L11">
-        <v>0.9914937516304779</v>
+        <v>1.052983176961261</v>
       </c>
       <c r="M11">
-        <v>1.007101725075038</v>
+        <v>1.063039808543072</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9650960599621101</v>
+        <v>1.023763840354788</v>
       </c>
       <c r="D12">
-        <v>0.9937682273595828</v>
+        <v>1.042898502049531</v>
       </c>
       <c r="E12">
-        <v>0.9736640520659749</v>
+        <v>1.03735300941291</v>
       </c>
       <c r="F12">
-        <v>0.9894734439296745</v>
+        <v>1.047538667933666</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033615081933307</v>
+        <v>1.057322215611374</v>
       </c>
       <c r="J12">
-        <v>0.9964547676164405</v>
+        <v>1.052595444933646</v>
       </c>
       <c r="K12">
-        <v>1.009015800153409</v>
+        <v>1.057247533353371</v>
       </c>
       <c r="L12">
-        <v>0.9893138192717358</v>
+        <v>1.051797945059622</v>
       </c>
       <c r="M12">
-        <v>1.004805133605994</v>
+        <v>1.061808459028926</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9657041600509259</v>
+        <v>1.024125354510415</v>
       </c>
       <c r="D13">
-        <v>0.9942583743992666</v>
+        <v>1.04318453679775</v>
       </c>
       <c r="E13">
-        <v>0.9741909083906327</v>
+        <v>1.037655005693436</v>
       </c>
       <c r="F13">
-        <v>0.9900243243712115</v>
+        <v>1.047850028886991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033858927441953</v>
+        <v>1.057462526640806</v>
       </c>
       <c r="J13">
-        <v>0.9969361726078291</v>
+        <v>1.052853631710789</v>
       </c>
       <c r="K13">
-        <v>1.009452001066615</v>
+        <v>1.057487238985512</v>
       </c>
       <c r="L13">
-        <v>0.9897840953075728</v>
+        <v>1.052052948849593</v>
       </c>
       <c r="M13">
-        <v>1.005300485252513</v>
+        <v>1.062073381233216</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9676836284650709</v>
+        <v>1.02530568891818</v>
       </c>
       <c r="D14">
-        <v>0.9958542506670262</v>
+        <v>1.044118611172276</v>
       </c>
       <c r="E14">
-        <v>0.9759061056948266</v>
+        <v>1.038641262882952</v>
       </c>
       <c r="F14">
-        <v>0.9918180486260297</v>
+        <v>1.048866871196916</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034652285928342</v>
+        <v>1.057920391518993</v>
       </c>
       <c r="J14">
-        <v>0.9985031432927887</v>
+        <v>1.053696547659839</v>
       </c>
       <c r="K14">
-        <v>1.010871847666799</v>
+        <v>1.058269806933083</v>
       </c>
       <c r="L14">
-        <v>0.9913147522672008</v>
+        <v>1.052885549702326</v>
       </c>
       <c r="M14">
-        <v>1.006913105731108</v>
+        <v>1.062938380867998</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9688934536703175</v>
+        <v>1.02602975299433</v>
       </c>
       <c r="D15">
-        <v>0.9968299014976415</v>
+        <v>1.044691743902415</v>
       </c>
       <c r="E15">
-        <v>0.9769545528943943</v>
+        <v>1.039246459347412</v>
       </c>
       <c r="F15">
-        <v>0.9929147367884154</v>
+        <v>1.049490837142497</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03513686778601</v>
+        <v>1.058201074007933</v>
       </c>
       <c r="J15">
-        <v>0.9994607877243367</v>
+        <v>1.054213580766528</v>
       </c>
       <c r="K15">
-        <v>1.011739588255346</v>
+        <v>1.058749814220751</v>
       </c>
       <c r="L15">
-        <v>0.9922501355872494</v>
+        <v>1.05339631399104</v>
       </c>
       <c r="M15">
-        <v>1.007898840835304</v>
+        <v>1.063469031526602</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,75 +995,81 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9757924189295056</v>
+        <v>1.030196818858621</v>
       </c>
       <c r="D16">
-        <v>1.002397337023947</v>
+        <v>1.047992140548566</v>
       </c>
       <c r="E16">
-        <v>0.9829352013041415</v>
+        <v>1.042732188821456</v>
       </c>
       <c r="F16">
-        <v>0.9991741256823958</v>
+        <v>1.053084695620055</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037895408466108</v>
+        <v>1.059813505765201</v>
       </c>
       <c r="J16">
-        <v>1.004920551345982</v>
+        <v>1.05718842627978</v>
       </c>
       <c r="K16">
-        <v>1.016686890389157</v>
+        <v>1.061511474377257</v>
       </c>
       <c r="L16">
-        <v>0.9975819498227042</v>
+        <v>1.05633596519839</v>
       </c>
       <c r="M16">
-        <v>1.013521585928625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.066523302971935</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9800010837686803</v>
+        <v>1.032770347438495</v>
       </c>
       <c r="D17">
-        <v>1.005796806864684</v>
+        <v>1.050032059526544</v>
       </c>
       <c r="E17">
-        <v>0.9865851527541524</v>
+        <v>1.04488727558977</v>
       </c>
       <c r="F17">
-        <v>1.00299725319234</v>
+        <v>1.055306654022314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039573949130207</v>
+        <v>1.060806706940277</v>
       </c>
       <c r="J17">
-        <v>1.008250093343722</v>
+        <v>1.059024954234701</v>
       </c>
       <c r="K17">
-        <v>1.019703954773809</v>
+        <v>1.063216247825515</v>
       </c>
       <c r="L17">
-        <v>1.00083255353969</v>
+        <v>1.058151523926702</v>
       </c>
       <c r="M17">
-        <v>1.016952933005909</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.06840979581723</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9824156121687155</v>
+        <v>1.034257392414014</v>
       </c>
       <c r="D18">
-        <v>1.007748113155291</v>
+        <v>1.051211329465085</v>
       </c>
       <c r="E18">
-        <v>0.9886796136646367</v>
+        <v>1.046133348930551</v>
       </c>
       <c r="F18">
-        <v>1.00519217033788</v>
+        <v>1.056591399583707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040535347346582</v>
+        <v>1.061379640555163</v>
       </c>
       <c r="J18">
-        <v>1.010159801123743</v>
+        <v>1.060085869893133</v>
       </c>
       <c r="K18">
-        <v>1.021434431033021</v>
+        <v>1.064200995779971</v>
       </c>
       <c r="L18">
-        <v>1.002696655297774</v>
+        <v>1.059200595642444</v>
       </c>
       <c r="M18">
-        <v>1.018921878004556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.069499905646035</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9832322893441576</v>
+        <v>1.034762098287237</v>
       </c>
       <c r="D19">
-        <v>1.008408276370353</v>
+        <v>1.051611667536259</v>
       </c>
       <c r="E19">
-        <v>0.9893881061839181</v>
+        <v>1.046556403921761</v>
       </c>
       <c r="F19">
-        <v>1.005934826014847</v>
+        <v>1.057027585369811</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040860252134135</v>
+        <v>1.061573930455934</v>
       </c>
       <c r="J19">
-        <v>1.01080564715146</v>
+        <v>1.060445898391514</v>
       </c>
       <c r="K19">
-        <v>1.022019659941452</v>
+        <v>1.064535166276728</v>
       </c>
       <c r="L19">
-        <v>1.003327021631096</v>
+        <v>1.05955665022339</v>
       </c>
       <c r="M19">
-        <v>1.019587898946683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.069869897074959</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9795537578379004</v>
+        <v>1.032495696359087</v>
       </c>
       <c r="D20">
-        <v>1.005435379866955</v>
+        <v>1.049814297597399</v>
       </c>
       <c r="E20">
-        <v>0.9861971604285142</v>
+        <v>1.044657196155572</v>
       </c>
       <c r="F20">
-        <v>1.002590739081677</v>
+        <v>1.055069434571805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039395706497443</v>
+        <v>1.060700810279281</v>
       </c>
       <c r="J20">
-        <v>1.007896253861104</v>
+        <v>1.058828984923037</v>
       </c>
       <c r="K20">
-        <v>1.019383323281934</v>
+        <v>1.063034343324152</v>
       </c>
       <c r="L20">
-        <v>1.000487137327238</v>
+        <v>1.057957764118138</v>
       </c>
       <c r="M20">
-        <v>1.016588185925501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.068208460500313</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.967102780824536</v>
+        <v>1.024958775127093</v>
       </c>
       <c r="D21">
-        <v>0.9953859052669423</v>
+        <v>1.043844047779736</v>
       </c>
       <c r="E21">
-        <v>0.9754027747760272</v>
+        <v>1.038351351366861</v>
       </c>
       <c r="F21">
-        <v>0.9912916233926605</v>
+        <v>1.04856796882228</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034419550067124</v>
+        <v>1.057785859351679</v>
       </c>
       <c r="J21">
-        <v>0.9980433511907937</v>
+        <v>1.05344881429506</v>
       </c>
       <c r="K21">
-        <v>1.010455223553693</v>
+        <v>1.058039811761006</v>
       </c>
       <c r="L21">
-        <v>0.9908656298537849</v>
+        <v>1.052640835750365</v>
       </c>
       <c r="M21">
-        <v>1.006439878398067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.062684142095531</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9588533922359862</v>
+        <v>1.020082480813703</v>
       </c>
       <c r="D22">
-        <v>0.9887395669147723</v>
+        <v>1.039987238185529</v>
       </c>
       <c r="E22">
-        <v>0.9682570900503733</v>
+        <v>1.034279755495657</v>
       </c>
       <c r="F22">
-        <v>0.9838225138597096</v>
+        <v>1.044370131402247</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031108644080968</v>
+        <v>1.055891454595592</v>
       </c>
       <c r="J22">
-        <v>0.9915121454087189</v>
+        <v>1.049965859027712</v>
       </c>
       <c r="K22">
-        <v>1.00453744501986</v>
+        <v>1.054806088309842</v>
       </c>
       <c r="L22">
-        <v>0.9844847440138926</v>
+        <v>1.049201396220779</v>
       </c>
       <c r="M22">
-        <v>0.9997214094462205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.059111035668279</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9632695789759829</v>
+        <v>1.022681094114839</v>
       </c>
       <c r="D23">
-        <v>0.9922963490469363</v>
+        <v>1.042041973157033</v>
       </c>
       <c r="E23">
-        <v>0.9720817634301527</v>
+        <v>1.036448733624246</v>
       </c>
       <c r="F23">
-        <v>0.9878192758578805</v>
+        <v>1.0466063529978</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032882333491171</v>
+        <v>1.056901771152176</v>
       </c>
       <c r="J23">
-        <v>0.9950087593667356</v>
+        <v>1.05182212047262</v>
       </c>
       <c r="K23">
-        <v>1.00770558700138</v>
+        <v>1.056529554338045</v>
       </c>
       <c r="L23">
-        <v>0.9879011635437025</v>
+        <v>1.051034219727716</v>
       </c>
       <c r="M23">
-        <v>1.003317452077638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.061015040995506</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9797560091600561</v>
+        <v>1.032619842665098</v>
       </c>
       <c r="D24">
-        <v>1.005598790209271</v>
+        <v>1.049912727454398</v>
       </c>
       <c r="E24">
-        <v>0.9863725835604639</v>
+        <v>1.044761192908021</v>
       </c>
       <c r="F24">
-        <v>1.002774533113358</v>
+        <v>1.055176658616352</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039476301026621</v>
+        <v>1.060748680106289</v>
       </c>
       <c r="J24">
-        <v>1.008056238225646</v>
+        <v>1.058917566771408</v>
       </c>
       <c r="K24">
-        <v>1.019528293064936</v>
+        <v>1.063116567787634</v>
       </c>
       <c r="L24">
-        <v>1.000643314236044</v>
+        <v>1.058045346393909</v>
       </c>
       <c r="M24">
-        <v>1.016753099406423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.068299466859765</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9973238113530493</v>
+        <v>1.04360644309487</v>
       </c>
       <c r="D25">
-        <v>1.019811493762128</v>
+        <v>1.058634411340127</v>
       </c>
       <c r="E25">
-        <v>1.001617987872874</v>
+        <v>1.053981032027617</v>
       </c>
       <c r="F25">
-        <v>1.018769569735304</v>
+        <v>1.064682757729586</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046442348973591</v>
+        <v>1.064964062876243</v>
       </c>
       <c r="J25">
-        <v>1.021941576800522</v>
+        <v>1.066750402715896</v>
       </c>
       <c r="K25">
-        <v>1.032109853834183</v>
+        <v>1.070385920786044</v>
       </c>
       <c r="L25">
-        <v>1.014191238481238</v>
+        <v>1.065795413274421</v>
       </c>
       <c r="M25">
-        <v>1.031083335676925</v>
+        <v>1.076353578750201</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.051979028218825</v>
+        <v>1.080416947809461</v>
       </c>
       <c r="D2">
-        <v>1.06529466257157</v>
+        <v>1.082600923681428</v>
       </c>
       <c r="E2">
-        <v>1.061028986162249</v>
+        <v>1.083516436617712</v>
       </c>
       <c r="F2">
-        <v>1.071949739308831</v>
+        <v>1.093851892338386</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.068144883941303</v>
+        <v>1.06169137221202</v>
       </c>
       <c r="J2">
-        <v>1.072708911627878</v>
+        <v>1.085296588463696</v>
       </c>
       <c r="K2">
-        <v>1.075913546561472</v>
+        <v>1.085268716931678</v>
       </c>
       <c r="L2">
-        <v>1.071698855102646</v>
+        <v>1.086181849270658</v>
       </c>
       <c r="M2">
-        <v>1.082490082238043</v>
+        <v>1.096490727932794</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.057854055022744</v>
+        <v>1.081638820709447</v>
       </c>
       <c r="D3">
-        <v>1.069974661140619</v>
+        <v>1.083590410843401</v>
       </c>
       <c r="E3">
-        <v>1.065985787647056</v>
+        <v>1.084587261377796</v>
       </c>
       <c r="F3">
-        <v>1.077060693932346</v>
+        <v>1.094955990059692</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070357696595929</v>
+        <v>1.062087799923795</v>
       </c>
       <c r="J3">
-        <v>1.076882853565804</v>
+        <v>1.086178520799054</v>
       </c>
       <c r="K3">
-        <v>1.079784148605834</v>
+        <v>1.086076453293009</v>
       </c>
       <c r="L3">
-        <v>1.075838642241407</v>
+        <v>1.087070899070883</v>
       </c>
       <c r="M3">
-        <v>1.086794111891448</v>
+        <v>1.097414893440482</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.061567679239448</v>
+        <v>1.08242949720248</v>
       </c>
       <c r="D4">
-        <v>1.072935494247827</v>
+        <v>1.084230661042608</v>
       </c>
       <c r="E4">
-        <v>1.069123815775926</v>
+        <v>1.085280408757779</v>
       </c>
       <c r="F4">
-        <v>1.080296363549696</v>
+        <v>1.095670700494448</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071747279418289</v>
+        <v>1.062343137207978</v>
       </c>
       <c r="J4">
-        <v>1.079517623800551</v>
+        <v>1.086748650882024</v>
       </c>
       <c r="K4">
-        <v>1.08222667537112</v>
+        <v>1.086598477465925</v>
       </c>
       <c r="L4">
-        <v>1.078453856232782</v>
+        <v>1.087645820267207</v>
       </c>
       <c r="M4">
-        <v>1.089513445633884</v>
+        <v>1.098012574447814</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.063108749085884</v>
+        <v>1.082761909246758</v>
       </c>
       <c r="D5">
-        <v>1.074164735186019</v>
+        <v>1.084499819287961</v>
       </c>
       <c r="E5">
-        <v>1.070427127228325</v>
+        <v>1.08557186882606</v>
       </c>
       <c r="F5">
-        <v>1.081640240417431</v>
+        <v>1.095971233636998</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072321690816952</v>
+        <v>1.062450199306736</v>
       </c>
       <c r="J5">
-        <v>1.080610090173564</v>
+        <v>1.086988205182483</v>
       </c>
       <c r="K5">
-        <v>1.083239238631694</v>
+        <v>1.086817784879367</v>
       </c>
       <c r="L5">
-        <v>1.079538689323582</v>
+        <v>1.087887433080355</v>
       </c>
       <c r="M5">
-        <v>1.090641555090106</v>
+        <v>1.098263764481661</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.063366345987765</v>
+        <v>1.082817723413898</v>
       </c>
       <c r="D6">
-        <v>1.07437023984658</v>
+        <v>1.084545011982563</v>
       </c>
       <c r="E6">
-        <v>1.070645044904143</v>
+        <v>1.085620809841621</v>
       </c>
       <c r="F6">
-        <v>1.081864941468496</v>
+        <v>1.096021698529141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072417573839244</v>
+        <v>1.062468158994483</v>
       </c>
       <c r="J6">
-        <v>1.08079264664748</v>
+        <v>1.087028419894741</v>
       </c>
       <c r="K6">
-        <v>1.083408431325932</v>
+        <v>1.08685459868778</v>
       </c>
       <c r="L6">
-        <v>1.079719998044572</v>
+        <v>1.087927996022098</v>
       </c>
       <c r="M6">
-        <v>1.090830101619953</v>
+        <v>1.098305936008285</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.061588349056515</v>
+        <v>1.082433938861022</v>
       </c>
       <c r="D7">
-        <v>1.072951979469025</v>
+        <v>1.084234257559232</v>
       </c>
       <c r="E7">
-        <v>1.069141292343956</v>
+        <v>1.085284303021457</v>
       </c>
       <c r="F7">
-        <v>1.080314384025883</v>
+        <v>1.095674715961672</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07175499267402</v>
+        <v>1.06234456888346</v>
       </c>
       <c r="J7">
-        <v>1.079532280284954</v>
+        <v>1.086751852321928</v>
       </c>
       <c r="K7">
-        <v>1.082240260651397</v>
+        <v>1.086601408457126</v>
       </c>
       <c r="L7">
-        <v>1.078468408436426</v>
+        <v>1.087649049039021</v>
       </c>
       <c r="M7">
-        <v>1.089528578019288</v>
+        <v>1.098015931155577</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.05398328842579</v>
+        <v>1.080829877378409</v>
       </c>
       <c r="D8">
-        <v>1.066890658592101</v>
+        <v>1.082935328704264</v>
       </c>
       <c r="E8">
-        <v>1.06271894800653</v>
+        <v>1.083878274975154</v>
       </c>
       <c r="F8">
-        <v>1.073692247059759</v>
+        <v>1.094224968576908</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068901679024155</v>
+        <v>1.061825590901965</v>
       </c>
       <c r="J8">
-        <v>1.074133576987198</v>
+        <v>1.085594753659824</v>
       </c>
       <c r="K8">
-        <v>1.077234829257367</v>
+        <v>1.085541827074231</v>
       </c>
       <c r="L8">
-        <v>1.073111437826072</v>
+        <v>1.086482381341756</v>
       </c>
       <c r="M8">
-        <v>1.083958630714336</v>
+        <v>1.096803119733041</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.039865020305687</v>
+        <v>1.07800358515331</v>
       </c>
       <c r="D9">
-        <v>1.055661917958435</v>
+        <v>1.080646321009911</v>
       </c>
       <c r="E9">
-        <v>1.050837627499234</v>
+        <v>1.081402580407307</v>
       </c>
       <c r="F9">
-        <v>1.061441723469105</v>
+        <v>1.091672488852452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063533419499061</v>
+        <v>1.060902049681848</v>
       </c>
       <c r="J9">
-        <v>1.064084529809115</v>
+        <v>1.083551638393821</v>
       </c>
       <c r="K9">
-        <v>1.067912151034699</v>
+        <v>1.083669819673398</v>
       </c>
       <c r="L9">
-        <v>1.06315643650218</v>
+        <v>1.084423831009781</v>
       </c>
       <c r="M9">
-        <v>1.073610834230915</v>
+        <v>1.094663546456152</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.029904048999063</v>
+        <v>1.076119484360376</v>
       </c>
       <c r="D10">
-        <v>1.047760153504531</v>
+        <v>1.079120197503145</v>
       </c>
       <c r="E10">
-        <v>1.04248713497977</v>
+        <v>1.079753361865139</v>
       </c>
       <c r="F10">
-        <v>1.052832038800631</v>
+        <v>1.089972250070598</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059700387347621</v>
+        <v>1.060280259538648</v>
       </c>
       <c r="J10">
-        <v>1.056979463353322</v>
+        <v>1.082186719757439</v>
       </c>
       <c r="K10">
-        <v>1.061317495301493</v>
+        <v>1.082418491065269</v>
       </c>
       <c r="L10">
-        <v>1.056129425217609</v>
+        <v>1.08304958857978</v>
       </c>
       <c r="M10">
-        <v>1.066308700438732</v>
+        <v>1.093235482703581</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.025444087286793</v>
+        <v>1.075303650135023</v>
       </c>
       <c r="D11">
-        <v>1.044228152492266</v>
+        <v>1.078459333213261</v>
       </c>
       <c r="E11">
-        <v>1.038756929780063</v>
+        <v>1.079039518038702</v>
       </c>
       <c r="F11">
-        <v>1.048986125280278</v>
+        <v>1.089236353995436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057974052735019</v>
+        <v>1.060009566565048</v>
       </c>
       <c r="J11">
-        <v>1.053795376619003</v>
+        <v>1.081595010112788</v>
       </c>
       <c r="K11">
-        <v>1.058361559096635</v>
+        <v>1.081875854864657</v>
       </c>
       <c r="L11">
-        <v>1.052983176961261</v>
+        <v>1.082454072334562</v>
       </c>
       <c r="M11">
-        <v>1.063039808543072</v>
+        <v>1.092616707253954</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.023763840354788</v>
+        <v>1.075000610225723</v>
       </c>
       <c r="D12">
-        <v>1.042898502049531</v>
+        <v>1.078213851588009</v>
       </c>
       <c r="E12">
-        <v>1.03735300941291</v>
+        <v>1.078774405635405</v>
       </c>
       <c r="F12">
-        <v>1.047538667933666</v>
+        <v>1.088963056371648</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057322215611374</v>
+        <v>1.059908800229038</v>
       </c>
       <c r="J12">
-        <v>1.052595444933646</v>
+        <v>1.081375117985725</v>
       </c>
       <c r="K12">
-        <v>1.057247533353371</v>
+        <v>1.081674174179076</v>
       </c>
       <c r="L12">
-        <v>1.051797945059622</v>
+        <v>1.082232801052845</v>
       </c>
       <c r="M12">
-        <v>1.061808459028926</v>
+        <v>1.092386803344553</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.024125354510415</v>
+        <v>1.075065613468905</v>
       </c>
       <c r="D13">
-        <v>1.04318453679775</v>
+        <v>1.078266508568452</v>
       </c>
       <c r="E13">
-        <v>1.037655005693436</v>
+        <v>1.078831271305859</v>
       </c>
       <c r="F13">
-        <v>1.047850028886991</v>
+        <v>1.089021677530015</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057462526640806</v>
+        <v>1.059930424864547</v>
       </c>
       <c r="J13">
-        <v>1.052853631710789</v>
+        <v>1.081422290353154</v>
       </c>
       <c r="K13">
-        <v>1.057487238985512</v>
+        <v>1.081717440879809</v>
       </c>
       <c r="L13">
-        <v>1.052052948849593</v>
+        <v>1.082280267677366</v>
       </c>
       <c r="M13">
-        <v>1.062073381233216</v>
+        <v>1.092436121385875</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.02530568891818</v>
+        <v>1.07527860082832</v>
       </c>
       <c r="D14">
-        <v>1.044118611172276</v>
+        <v>1.078439041777002</v>
       </c>
       <c r="E14">
-        <v>1.038641262882952</v>
+        <v>1.079017602933969</v>
       </c>
       <c r="F14">
-        <v>1.048866871196916</v>
+        <v>1.089213762176227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057920391518993</v>
+        <v>1.060001241656954</v>
       </c>
       <c r="J14">
-        <v>1.053696547659839</v>
+        <v>1.081576835905169</v>
       </c>
       <c r="K14">
-        <v>1.058269806933083</v>
+        <v>1.08185918635852</v>
       </c>
       <c r="L14">
-        <v>1.052885549702326</v>
+        <v>1.0824357834152</v>
       </c>
       <c r="M14">
-        <v>1.062938380867998</v>
+        <v>1.092597704618628</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.02602975299433</v>
+        <v>1.075409828950438</v>
       </c>
       <c r="D15">
-        <v>1.044691743902415</v>
+        <v>1.078545344203241</v>
       </c>
       <c r="E15">
-        <v>1.039246459347412</v>
+        <v>1.079132413403036</v>
       </c>
       <c r="F15">
-        <v>1.049490837142497</v>
+        <v>1.089332118059629</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058201074007933</v>
+        <v>1.060044845196821</v>
       </c>
       <c r="J15">
-        <v>1.054213580766528</v>
+        <v>1.081672042600233</v>
       </c>
       <c r="K15">
-        <v>1.058749814220751</v>
+        <v>1.08194650430878</v>
       </c>
       <c r="L15">
-        <v>1.05339631399104</v>
+        <v>1.082531592487219</v>
       </c>
       <c r="M15">
-        <v>1.063469031526602</v>
+        <v>1.092697252985656</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.030196818858621</v>
+        <v>1.076173628305319</v>
       </c>
       <c r="D16">
-        <v>1.047992140548566</v>
+        <v>1.079164055922363</v>
       </c>
       <c r="E16">
-        <v>1.042732188821456</v>
+        <v>1.079800743124409</v>
       </c>
       <c r="F16">
-        <v>1.053084695620055</v>
+        <v>1.090021095702849</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059813505765201</v>
+        <v>1.060298193868044</v>
       </c>
       <c r="J16">
-        <v>1.05718842627978</v>
+        <v>1.082225974934593</v>
       </c>
       <c r="K16">
-        <v>1.061511474377257</v>
+        <v>1.082454487059196</v>
       </c>
       <c r="L16">
-        <v>1.05633596519839</v>
+        <v>1.083089101259544</v>
       </c>
       <c r="M16">
-        <v>1.066523302971935</v>
+        <v>1.093276539984574</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.032770347438495</v>
+        <v>1.076652736523997</v>
       </c>
       <c r="D17">
-        <v>1.050032059526544</v>
+        <v>1.079552145443572</v>
       </c>
       <c r="E17">
-        <v>1.04488727558977</v>
+        <v>1.080220042684818</v>
       </c>
       <c r="F17">
-        <v>1.055306654022314</v>
+        <v>1.090453357813935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060806706940277</v>
+        <v>1.060456723232165</v>
       </c>
       <c r="J17">
-        <v>1.059024954234701</v>
+        <v>1.082573256365617</v>
       </c>
       <c r="K17">
-        <v>1.063216247825515</v>
+        <v>1.082772915724421</v>
       </c>
       <c r="L17">
-        <v>1.058151523926702</v>
+        <v>1.083438687943874</v>
       </c>
       <c r="M17">
-        <v>1.06840979581723</v>
+        <v>1.093639799831212</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.034257392414014</v>
+        <v>1.076932191771469</v>
       </c>
       <c r="D18">
-        <v>1.051211329465085</v>
+        <v>1.079778507424008</v>
       </c>
       <c r="E18">
-        <v>1.046133348930551</v>
+        <v>1.080464639973406</v>
       </c>
       <c r="F18">
-        <v>1.056591399583707</v>
+        <v>1.090705519785528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061379640555163</v>
+        <v>1.060549050497295</v>
       </c>
       <c r="J18">
-        <v>1.060085869893133</v>
+        <v>1.082775753158739</v>
       </c>
       <c r="K18">
-        <v>1.064200995779971</v>
+        <v>1.082958572389826</v>
       </c>
       <c r="L18">
-        <v>1.059200595642444</v>
+        <v>1.083642551599131</v>
       </c>
       <c r="M18">
-        <v>1.069499905646035</v>
+        <v>1.093851643228288</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.034762098287237</v>
+        <v>1.077027478764914</v>
       </c>
       <c r="D19">
-        <v>1.051611667536259</v>
+        <v>1.079855690342808</v>
       </c>
       <c r="E19">
-        <v>1.046556403921761</v>
+        <v>1.080548045925972</v>
       </c>
       <c r="F19">
-        <v>1.057027585369811</v>
+        <v>1.090791505752574</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061573930455934</v>
+        <v>1.060580507938558</v>
       </c>
       <c r="J19">
-        <v>1.060445898391514</v>
+        <v>1.082844788068531</v>
       </c>
       <c r="K19">
-        <v>1.064535166276728</v>
+        <v>1.083021863414496</v>
       </c>
       <c r="L19">
-        <v>1.05955665022339</v>
+        <v>1.083712056343034</v>
       </c>
       <c r="M19">
-        <v>1.069869897074959</v>
+        <v>1.093923869607292</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.032495696359087</v>
+        <v>1.076601332808011</v>
       </c>
       <c r="D20">
-        <v>1.049814297597399</v>
+        <v>1.079510507537382</v>
       </c>
       <c r="E20">
-        <v>1.044657196155572</v>
+        <v>1.080175053028997</v>
       </c>
       <c r="F20">
-        <v>1.055069434571805</v>
+        <v>1.090406977001387</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060700810279281</v>
+        <v>1.060439729039994</v>
       </c>
       <c r="J20">
-        <v>1.058828984923037</v>
+        <v>1.08253600324965</v>
       </c>
       <c r="K20">
-        <v>1.063034343324152</v>
+        <v>1.082738759352766</v>
       </c>
       <c r="L20">
-        <v>1.057957764118138</v>
+        <v>1.083401185194002</v>
       </c>
       <c r="M20">
-        <v>1.068208460500313</v>
+        <v>1.093600829623505</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.024958775127093</v>
+        <v>1.075215881450222</v>
       </c>
       <c r="D21">
-        <v>1.043844047779736</v>
+        <v>1.07838823525248</v>
       </c>
       <c r="E21">
-        <v>1.038351351366861</v>
+        <v>1.07896273178966</v>
       </c>
       <c r="F21">
-        <v>1.04856796882228</v>
+        <v>1.089157196746938</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057785859351679</v>
+        <v>1.059980393923773</v>
       </c>
       <c r="J21">
-        <v>1.05344881429506</v>
+        <v>1.08153132899379</v>
       </c>
       <c r="K21">
-        <v>1.058039811761006</v>
+        <v>1.081817449207109</v>
       </c>
       <c r="L21">
-        <v>1.052640835750365</v>
+        <v>1.082389989846951</v>
       </c>
       <c r="M21">
-        <v>1.062684142095531</v>
+        <v>1.092550124134547</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.020082480813703</v>
+        <v>1.074344776360513</v>
       </c>
       <c r="D22">
-        <v>1.039987238185529</v>
+        <v>1.077682576062069</v>
       </c>
       <c r="E22">
-        <v>1.034279755495657</v>
+        <v>1.078200733952209</v>
       </c>
       <c r="F22">
-        <v>1.044370131402247</v>
+        <v>1.088371681450417</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055891454595592</v>
+        <v>1.059690324892975</v>
       </c>
       <c r="J22">
-        <v>1.049965859027712</v>
+        <v>1.080899043455632</v>
       </c>
       <c r="K22">
-        <v>1.054806088309842</v>
+        <v>1.081237481918057</v>
       </c>
       <c r="L22">
-        <v>1.049201396220779</v>
+        <v>1.081753805567564</v>
       </c>
       <c r="M22">
-        <v>1.059111035668279</v>
+        <v>1.091889138044787</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.022681094114839</v>
+        <v>1.07480656785666</v>
       </c>
       <c r="D23">
-        <v>1.042041973157033</v>
+        <v>1.078056663598814</v>
       </c>
       <c r="E23">
-        <v>1.036448733624246</v>
+        <v>1.07860466129039</v>
       </c>
       <c r="F23">
-        <v>1.0466063529978</v>
+        <v>1.088788072574325</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056901771152176</v>
+        <v>1.059844216222074</v>
       </c>
       <c r="J23">
-        <v>1.05182212047262</v>
+        <v>1.081234287857264</v>
       </c>
       <c r="K23">
-        <v>1.056529554338045</v>
+        <v>1.081545000474658</v>
       </c>
       <c r="L23">
-        <v>1.051034219727716</v>
+        <v>1.082091097638277</v>
       </c>
       <c r="M23">
-        <v>1.061015040995506</v>
+        <v>1.09223957425406</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.032619842665098</v>
+        <v>1.076624559935571</v>
       </c>
       <c r="D24">
-        <v>1.049912727454398</v>
+        <v>1.079529321927203</v>
       </c>
       <c r="E24">
-        <v>1.044761192908021</v>
+        <v>1.080195381834329</v>
       </c>
       <c r="F24">
-        <v>1.055176658616352</v>
+        <v>1.09042793439867</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060748680106289</v>
+        <v>1.060447408417046</v>
       </c>
       <c r="J24">
-        <v>1.058917566771408</v>
+        <v>1.08255283653464</v>
       </c>
       <c r="K24">
-        <v>1.063116567787634</v>
+        <v>1.082754193385703</v>
       </c>
       <c r="L24">
-        <v>1.058045346393909</v>
+        <v>1.083418131209096</v>
       </c>
       <c r="M24">
-        <v>1.068299466859765</v>
+        <v>1.093618438705976</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.04360644309487</v>
+        <v>1.078734226506662</v>
       </c>
       <c r="D25">
-        <v>1.058634411340127</v>
+        <v>1.081238102912341</v>
       </c>
       <c r="E25">
-        <v>1.053981032027617</v>
+        <v>1.082042384705401</v>
       </c>
       <c r="F25">
-        <v>1.064682757729586</v>
+        <v>1.092332113952471</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064964062876243</v>
+        <v>1.061141880158449</v>
       </c>
       <c r="J25">
-        <v>1.066750402715896</v>
+        <v>1.084080330242829</v>
       </c>
       <c r="K25">
-        <v>1.070385920786044</v>
+        <v>1.084154361628211</v>
       </c>
       <c r="L25">
-        <v>1.065795413274421</v>
+        <v>1.084956343393022</v>
       </c>
       <c r="M25">
-        <v>1.076353578750201</v>
+        <v>1.095216971038559</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.080416947809461</v>
+        <v>1.051979028218825</v>
       </c>
       <c r="D2">
-        <v>1.082600923681428</v>
+        <v>1.06529466257157</v>
       </c>
       <c r="E2">
-        <v>1.083516436617712</v>
+        <v>1.061028986162249</v>
       </c>
       <c r="F2">
-        <v>1.093851892338386</v>
+        <v>1.071949739308831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06169137221202</v>
+        <v>1.068144883941303</v>
       </c>
       <c r="J2">
-        <v>1.085296588463696</v>
+        <v>1.072708911627878</v>
       </c>
       <c r="K2">
-        <v>1.085268716931678</v>
+        <v>1.075913546561472</v>
       </c>
       <c r="L2">
-        <v>1.086181849270658</v>
+        <v>1.071698855102646</v>
       </c>
       <c r="M2">
-        <v>1.096490727932794</v>
+        <v>1.082490082238043</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.081638820709447</v>
+        <v>1.057854055022744</v>
       </c>
       <c r="D3">
-        <v>1.083590410843401</v>
+        <v>1.069974661140619</v>
       </c>
       <c r="E3">
-        <v>1.084587261377796</v>
+        <v>1.065985787647056</v>
       </c>
       <c r="F3">
-        <v>1.094955990059692</v>
+        <v>1.077060693932345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062087799923795</v>
+        <v>1.070357696595928</v>
       </c>
       <c r="J3">
-        <v>1.086178520799054</v>
+        <v>1.076882853565804</v>
       </c>
       <c r="K3">
-        <v>1.086076453293009</v>
+        <v>1.079784148605834</v>
       </c>
       <c r="L3">
-        <v>1.087070899070883</v>
+        <v>1.075838642241407</v>
       </c>
       <c r="M3">
-        <v>1.097414893440482</v>
+        <v>1.086794111891447</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.08242949720248</v>
+        <v>1.061567679239449</v>
       </c>
       <c r="D4">
-        <v>1.084230661042608</v>
+        <v>1.072935494247827</v>
       </c>
       <c r="E4">
-        <v>1.085280408757779</v>
+        <v>1.069123815775926</v>
       </c>
       <c r="F4">
-        <v>1.095670700494448</v>
+        <v>1.080296363549696</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062343137207978</v>
+        <v>1.071747279418289</v>
       </c>
       <c r="J4">
-        <v>1.086748650882024</v>
+        <v>1.079517623800551</v>
       </c>
       <c r="K4">
-        <v>1.086598477465925</v>
+        <v>1.08222667537112</v>
       </c>
       <c r="L4">
-        <v>1.087645820267207</v>
+        <v>1.078453856232783</v>
       </c>
       <c r="M4">
-        <v>1.098012574447814</v>
+        <v>1.089513445633884</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.082761909246758</v>
+        <v>1.063108749085884</v>
       </c>
       <c r="D5">
-        <v>1.084499819287961</v>
+        <v>1.074164735186019</v>
       </c>
       <c r="E5">
-        <v>1.08557186882606</v>
+        <v>1.070427127228324</v>
       </c>
       <c r="F5">
-        <v>1.095971233636998</v>
+        <v>1.08164024041743</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062450199306736</v>
+        <v>1.072321690816952</v>
       </c>
       <c r="J5">
-        <v>1.086988205182483</v>
+        <v>1.080610090173563</v>
       </c>
       <c r="K5">
-        <v>1.086817784879367</v>
+        <v>1.083239238631694</v>
       </c>
       <c r="L5">
-        <v>1.087887433080355</v>
+        <v>1.079538689323581</v>
       </c>
       <c r="M5">
-        <v>1.098263764481661</v>
+        <v>1.090641555090105</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.082817723413898</v>
+        <v>1.063366345987763</v>
       </c>
       <c r="D6">
-        <v>1.084545011982563</v>
+        <v>1.074370239846578</v>
       </c>
       <c r="E6">
-        <v>1.085620809841621</v>
+        <v>1.070645044904141</v>
       </c>
       <c r="F6">
-        <v>1.096021698529141</v>
+        <v>1.081864941468494</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062468158994483</v>
+        <v>1.072417573839242</v>
       </c>
       <c r="J6">
-        <v>1.087028419894741</v>
+        <v>1.080792646647477</v>
       </c>
       <c r="K6">
-        <v>1.08685459868778</v>
+        <v>1.08340843132593</v>
       </c>
       <c r="L6">
-        <v>1.087927996022098</v>
+        <v>1.079719998044571</v>
       </c>
       <c r="M6">
-        <v>1.098305936008285</v>
+        <v>1.090830101619951</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.082433938861022</v>
+        <v>1.061588349056515</v>
       </c>
       <c r="D7">
-        <v>1.084234257559232</v>
+        <v>1.072951979469024</v>
       </c>
       <c r="E7">
-        <v>1.085284303021457</v>
+        <v>1.069141292343956</v>
       </c>
       <c r="F7">
-        <v>1.095674715961672</v>
+        <v>1.080314384025882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06234456888346</v>
+        <v>1.071754992674019</v>
       </c>
       <c r="J7">
-        <v>1.086751852321928</v>
+        <v>1.079532280284953</v>
       </c>
       <c r="K7">
-        <v>1.086601408457126</v>
+        <v>1.082240260651397</v>
       </c>
       <c r="L7">
-        <v>1.087649049039021</v>
+        <v>1.078468408436426</v>
       </c>
       <c r="M7">
-        <v>1.098015931155577</v>
+        <v>1.089528578019287</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.080829877378409</v>
+        <v>1.053983288425791</v>
       </c>
       <c r="D8">
-        <v>1.082935328704264</v>
+        <v>1.066890658592102</v>
       </c>
       <c r="E8">
-        <v>1.083878274975154</v>
+        <v>1.062718948006531</v>
       </c>
       <c r="F8">
-        <v>1.094224968576908</v>
+        <v>1.07369224705976</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061825590901965</v>
+        <v>1.068901679024155</v>
       </c>
       <c r="J8">
-        <v>1.085594753659824</v>
+        <v>1.074133576987199</v>
       </c>
       <c r="K8">
-        <v>1.085541827074231</v>
+        <v>1.077234829257367</v>
       </c>
       <c r="L8">
-        <v>1.086482381341756</v>
+        <v>1.073111437826072</v>
       </c>
       <c r="M8">
-        <v>1.096803119733041</v>
+        <v>1.083958630714337</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.07800358515331</v>
+        <v>1.039865020305686</v>
       </c>
       <c r="D9">
-        <v>1.080646321009911</v>
+        <v>1.055661917958435</v>
       </c>
       <c r="E9">
-        <v>1.081402580407307</v>
+        <v>1.050837627499233</v>
       </c>
       <c r="F9">
-        <v>1.091672488852452</v>
+        <v>1.061441723469105</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060902049681848</v>
+        <v>1.06353341949906</v>
       </c>
       <c r="J9">
-        <v>1.083551638393821</v>
+        <v>1.064084529809114</v>
       </c>
       <c r="K9">
-        <v>1.083669819673398</v>
+        <v>1.067912151034698</v>
       </c>
       <c r="L9">
-        <v>1.084423831009781</v>
+        <v>1.063156436502179</v>
       </c>
       <c r="M9">
-        <v>1.094663546456152</v>
+        <v>1.073610834230914</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.076119484360376</v>
+        <v>1.029904048999062</v>
       </c>
       <c r="D10">
-        <v>1.079120197503145</v>
+        <v>1.047760153504531</v>
       </c>
       <c r="E10">
-        <v>1.079753361865139</v>
+        <v>1.042487134979769</v>
       </c>
       <c r="F10">
-        <v>1.089972250070598</v>
+        <v>1.052832038800631</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060280259538648</v>
+        <v>1.059700387347621</v>
       </c>
       <c r="J10">
-        <v>1.082186719757439</v>
+        <v>1.056979463353322</v>
       </c>
       <c r="K10">
-        <v>1.082418491065269</v>
+        <v>1.061317495301493</v>
       </c>
       <c r="L10">
-        <v>1.08304958857978</v>
+        <v>1.056129425217609</v>
       </c>
       <c r="M10">
-        <v>1.093235482703581</v>
+        <v>1.066308700438731</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.075303650135023</v>
+        <v>1.025444087286794</v>
       </c>
       <c r="D11">
-        <v>1.078459333213261</v>
+        <v>1.044228152492266</v>
       </c>
       <c r="E11">
-        <v>1.079039518038702</v>
+        <v>1.038756929780064</v>
       </c>
       <c r="F11">
-        <v>1.089236353995436</v>
+        <v>1.048986125280278</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060009566565048</v>
+        <v>1.057974052735019</v>
       </c>
       <c r="J11">
-        <v>1.081595010112788</v>
+        <v>1.053795376619004</v>
       </c>
       <c r="K11">
-        <v>1.081875854864657</v>
+        <v>1.058361559096635</v>
       </c>
       <c r="L11">
-        <v>1.082454072334562</v>
+        <v>1.052983176961262</v>
       </c>
       <c r="M11">
-        <v>1.092616707253954</v>
+        <v>1.063039808543072</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.075000610225723</v>
+        <v>1.023763840354787</v>
       </c>
       <c r="D12">
-        <v>1.078213851588009</v>
+        <v>1.04289850204953</v>
       </c>
       <c r="E12">
-        <v>1.078774405635405</v>
+        <v>1.037353009412909</v>
       </c>
       <c r="F12">
-        <v>1.088963056371648</v>
+        <v>1.047538667933665</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059908800229038</v>
+        <v>1.057322215611373</v>
       </c>
       <c r="J12">
-        <v>1.081375117985725</v>
+        <v>1.052595444933645</v>
       </c>
       <c r="K12">
-        <v>1.081674174179076</v>
+        <v>1.05724753335337</v>
       </c>
       <c r="L12">
-        <v>1.082232801052845</v>
+        <v>1.051797945059621</v>
       </c>
       <c r="M12">
-        <v>1.092386803344553</v>
+        <v>1.061808459028925</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.075065613468905</v>
+        <v>1.024125354510415</v>
       </c>
       <c r="D13">
-        <v>1.078266508568452</v>
+        <v>1.04318453679775</v>
       </c>
       <c r="E13">
-        <v>1.078831271305859</v>
+        <v>1.037655005693436</v>
       </c>
       <c r="F13">
-        <v>1.089021677530015</v>
+        <v>1.047850028886991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059930424864547</v>
+        <v>1.057462526640806</v>
       </c>
       <c r="J13">
-        <v>1.081422290353154</v>
+        <v>1.052853631710789</v>
       </c>
       <c r="K13">
-        <v>1.081717440879809</v>
+        <v>1.057487238985512</v>
       </c>
       <c r="L13">
-        <v>1.082280267677366</v>
+        <v>1.052052948849593</v>
       </c>
       <c r="M13">
-        <v>1.092436121385875</v>
+        <v>1.062073381233217</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.07527860082832</v>
+        <v>1.02530568891818</v>
       </c>
       <c r="D14">
-        <v>1.078439041777002</v>
+        <v>1.044118611172275</v>
       </c>
       <c r="E14">
-        <v>1.079017602933969</v>
+        <v>1.038641262882952</v>
       </c>
       <c r="F14">
-        <v>1.089213762176227</v>
+        <v>1.048866871196916</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.060001241656954</v>
+        <v>1.057920391518992</v>
       </c>
       <c r="J14">
-        <v>1.081576835905169</v>
+        <v>1.053696547659839</v>
       </c>
       <c r="K14">
-        <v>1.08185918635852</v>
+        <v>1.058269806933082</v>
       </c>
       <c r="L14">
-        <v>1.0824357834152</v>
+        <v>1.052885549702326</v>
       </c>
       <c r="M14">
-        <v>1.092597704618628</v>
+        <v>1.062938380867998</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.075409828950438</v>
+        <v>1.02602975299433</v>
       </c>
       <c r="D15">
-        <v>1.078545344203241</v>
+        <v>1.044691743902415</v>
       </c>
       <c r="E15">
-        <v>1.079132413403036</v>
+        <v>1.039246459347411</v>
       </c>
       <c r="F15">
-        <v>1.089332118059629</v>
+        <v>1.049490837142496</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060044845196821</v>
+        <v>1.058201074007933</v>
       </c>
       <c r="J15">
-        <v>1.081672042600233</v>
+        <v>1.054213580766528</v>
       </c>
       <c r="K15">
-        <v>1.08194650430878</v>
+        <v>1.05874981422075</v>
       </c>
       <c r="L15">
-        <v>1.082531592487219</v>
+        <v>1.053396313991039</v>
       </c>
       <c r="M15">
-        <v>1.092697252985656</v>
+        <v>1.063469031526601</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.076173628305319</v>
+        <v>1.030196818858621</v>
       </c>
       <c r="D16">
-        <v>1.079164055922363</v>
+        <v>1.047992140548565</v>
       </c>
       <c r="E16">
-        <v>1.079800743124409</v>
+        <v>1.042732188821456</v>
       </c>
       <c r="F16">
-        <v>1.090021095702849</v>
+        <v>1.053084695620055</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060298193868044</v>
+        <v>1.059813505765201</v>
       </c>
       <c r="J16">
-        <v>1.082225974934593</v>
+        <v>1.05718842627978</v>
       </c>
       <c r="K16">
-        <v>1.082454487059196</v>
+        <v>1.061511474377257</v>
       </c>
       <c r="L16">
-        <v>1.083089101259544</v>
+        <v>1.05633596519839</v>
       </c>
       <c r="M16">
-        <v>1.093276539984574</v>
+        <v>1.066523302971935</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.076652736523997</v>
+        <v>1.032770347438496</v>
       </c>
       <c r="D17">
-        <v>1.079552145443572</v>
+        <v>1.050032059526546</v>
       </c>
       <c r="E17">
-        <v>1.080220042684818</v>
+        <v>1.044887275589771</v>
       </c>
       <c r="F17">
-        <v>1.090453357813935</v>
+        <v>1.055306654022315</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060456723232165</v>
+        <v>1.060806706940278</v>
       </c>
       <c r="J17">
-        <v>1.082573256365617</v>
+        <v>1.059024954234703</v>
       </c>
       <c r="K17">
-        <v>1.082772915724421</v>
+        <v>1.063216247825516</v>
       </c>
       <c r="L17">
-        <v>1.083438687943874</v>
+        <v>1.058151523926703</v>
       </c>
       <c r="M17">
-        <v>1.093639799831212</v>
+        <v>1.068409795817231</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.076932191771469</v>
+        <v>1.034257392414014</v>
       </c>
       <c r="D18">
-        <v>1.079778507424008</v>
+        <v>1.051211329465084</v>
       </c>
       <c r="E18">
-        <v>1.080464639973406</v>
+        <v>1.046133348930551</v>
       </c>
       <c r="F18">
-        <v>1.090705519785528</v>
+        <v>1.056591399583708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060549050497295</v>
+        <v>1.061379640555163</v>
       </c>
       <c r="J18">
-        <v>1.082775753158739</v>
+        <v>1.060085869893133</v>
       </c>
       <c r="K18">
-        <v>1.082958572389826</v>
+        <v>1.064200995779971</v>
       </c>
       <c r="L18">
-        <v>1.083642551599131</v>
+        <v>1.059200595642445</v>
       </c>
       <c r="M18">
-        <v>1.093851643228288</v>
+        <v>1.069499905646035</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.077027478764914</v>
+        <v>1.034762098287236</v>
       </c>
       <c r="D19">
-        <v>1.079855690342808</v>
+        <v>1.051611667536258</v>
       </c>
       <c r="E19">
-        <v>1.080548045925972</v>
+        <v>1.04655640392176</v>
       </c>
       <c r="F19">
-        <v>1.090791505752574</v>
+        <v>1.05702758536981</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060580507938558</v>
+        <v>1.061573930455933</v>
       </c>
       <c r="J19">
-        <v>1.082844788068531</v>
+        <v>1.060445898391513</v>
       </c>
       <c r="K19">
-        <v>1.083021863414496</v>
+        <v>1.064535166276726</v>
       </c>
       <c r="L19">
-        <v>1.083712056343034</v>
+        <v>1.059556650223388</v>
       </c>
       <c r="M19">
-        <v>1.093923869607292</v>
+        <v>1.069869897074958</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.076601332808011</v>
+        <v>1.032495696359087</v>
       </c>
       <c r="D20">
-        <v>1.079510507537382</v>
+        <v>1.049814297597398</v>
       </c>
       <c r="E20">
-        <v>1.080175053028997</v>
+        <v>1.044657196155572</v>
       </c>
       <c r="F20">
-        <v>1.090406977001387</v>
+        <v>1.055069434571805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060439729039994</v>
+        <v>1.060700810279281</v>
       </c>
       <c r="J20">
-        <v>1.08253600324965</v>
+        <v>1.058828984923037</v>
       </c>
       <c r="K20">
-        <v>1.082738759352766</v>
+        <v>1.063034343324152</v>
       </c>
       <c r="L20">
-        <v>1.083401185194002</v>
+        <v>1.057957764118137</v>
       </c>
       <c r="M20">
-        <v>1.093600829623505</v>
+        <v>1.068208460500313</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.075215881450222</v>
+        <v>1.024958775127095</v>
       </c>
       <c r="D21">
-        <v>1.07838823525248</v>
+        <v>1.043844047779739</v>
       </c>
       <c r="E21">
-        <v>1.07896273178966</v>
+        <v>1.038351351366863</v>
       </c>
       <c r="F21">
-        <v>1.089157196746938</v>
+        <v>1.048567968822282</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.059980393923773</v>
+        <v>1.05778585935168</v>
       </c>
       <c r="J21">
-        <v>1.08153132899379</v>
+        <v>1.053448814295062</v>
       </c>
       <c r="K21">
-        <v>1.081817449207109</v>
+        <v>1.058039811761008</v>
       </c>
       <c r="L21">
-        <v>1.082389989846951</v>
+        <v>1.052640835750367</v>
       </c>
       <c r="M21">
-        <v>1.092550124134547</v>
+        <v>1.062684142095534</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.074344776360513</v>
+        <v>1.020082480813703</v>
       </c>
       <c r="D22">
-        <v>1.077682576062069</v>
+        <v>1.039987238185529</v>
       </c>
       <c r="E22">
-        <v>1.078200733952209</v>
+        <v>1.034279755495657</v>
       </c>
       <c r="F22">
-        <v>1.088371681450417</v>
+        <v>1.044370131402247</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059690324892975</v>
+        <v>1.055891454595593</v>
       </c>
       <c r="J22">
-        <v>1.080899043455632</v>
+        <v>1.049965859027713</v>
       </c>
       <c r="K22">
-        <v>1.081237481918057</v>
+        <v>1.054806088309842</v>
       </c>
       <c r="L22">
-        <v>1.081753805567564</v>
+        <v>1.049201396220779</v>
       </c>
       <c r="M22">
-        <v>1.091889138044787</v>
+        <v>1.059111035668279</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.07480656785666</v>
+        <v>1.022681094114839</v>
       </c>
       <c r="D23">
-        <v>1.078056663598814</v>
+        <v>1.042041973157032</v>
       </c>
       <c r="E23">
-        <v>1.07860466129039</v>
+        <v>1.036448733624246</v>
       </c>
       <c r="F23">
-        <v>1.088788072574325</v>
+        <v>1.046606352997799</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.059844216222074</v>
+        <v>1.056901771152176</v>
       </c>
       <c r="J23">
-        <v>1.081234287857264</v>
+        <v>1.05182212047262</v>
       </c>
       <c r="K23">
-        <v>1.081545000474658</v>
+        <v>1.056529554338045</v>
       </c>
       <c r="L23">
-        <v>1.082091097638277</v>
+        <v>1.051034219727715</v>
       </c>
       <c r="M23">
-        <v>1.09223957425406</v>
+        <v>1.061015040995505</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.076624559935571</v>
+        <v>1.032619842665097</v>
       </c>
       <c r="D24">
-        <v>1.079529321927203</v>
+        <v>1.049912727454397</v>
       </c>
       <c r="E24">
-        <v>1.080195381834329</v>
+        <v>1.04476119290802</v>
       </c>
       <c r="F24">
-        <v>1.09042793439867</v>
+        <v>1.055176658616352</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060447408417046</v>
+        <v>1.060748680106289</v>
       </c>
       <c r="J24">
-        <v>1.08255283653464</v>
+        <v>1.058917566771407</v>
       </c>
       <c r="K24">
-        <v>1.082754193385703</v>
+        <v>1.063116567787633</v>
       </c>
       <c r="L24">
-        <v>1.083418131209096</v>
+        <v>1.058045346393909</v>
       </c>
       <c r="M24">
-        <v>1.093618438705976</v>
+        <v>1.068299466859765</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.078734226506662</v>
+        <v>1.04360644309487</v>
       </c>
       <c r="D25">
-        <v>1.081238102912341</v>
+        <v>1.058634411340127</v>
       </c>
       <c r="E25">
-        <v>1.082042384705401</v>
+        <v>1.053981032027617</v>
       </c>
       <c r="F25">
-        <v>1.092332113952471</v>
+        <v>1.064682757729586</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061141880158449</v>
+        <v>1.064964062876243</v>
       </c>
       <c r="J25">
-        <v>1.084080330242829</v>
+        <v>1.066750402715896</v>
       </c>
       <c r="K25">
-        <v>1.084154361628211</v>
+        <v>1.070385920786044</v>
       </c>
       <c r="L25">
-        <v>1.084956343393022</v>
+        <v>1.065795413274422</v>
       </c>
       <c r="M25">
-        <v>1.095216971038559</v>
+        <v>1.076353578750201</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051979028218825</v>
+        <v>1.030606411529094</v>
       </c>
       <c r="D2">
-        <v>1.06529466257157</v>
+        <v>1.04578164138151</v>
       </c>
       <c r="E2">
-        <v>1.061028986162249</v>
+        <v>1.03215798084577</v>
       </c>
       <c r="F2">
-        <v>1.071949739308831</v>
+        <v>1.046778319624251</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.068144883941303</v>
+        <v>1.061537043498398</v>
       </c>
       <c r="J2">
-        <v>1.072708911627878</v>
+        <v>1.051908697958726</v>
       </c>
       <c r="K2">
-        <v>1.075913546561472</v>
+        <v>1.05663798706763</v>
       </c>
       <c r="L2">
-        <v>1.071698855102646</v>
+        <v>1.043186770869824</v>
       </c>
       <c r="M2">
-        <v>1.082490082238043</v>
+        <v>1.057622269159026</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054176424272516</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.051118111658937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.057854055022744</v>
+        <v>1.035268716140927</v>
       </c>
       <c r="D3">
-        <v>1.069974661140619</v>
+        <v>1.049021214253051</v>
       </c>
       <c r="E3">
-        <v>1.065985787647056</v>
+        <v>1.036004103201976</v>
       </c>
       <c r="F3">
-        <v>1.077060693932345</v>
+        <v>1.05002266439257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070357696595928</v>
+        <v>1.063118426439459</v>
       </c>
       <c r="J3">
-        <v>1.076882853565804</v>
+        <v>1.054842009375364</v>
       </c>
       <c r="K3">
-        <v>1.079784148605834</v>
+        <v>1.059063048391378</v>
       </c>
       <c r="L3">
-        <v>1.075838642241407</v>
+        <v>1.04619613298899</v>
       </c>
       <c r="M3">
-        <v>1.086794111891447</v>
+        <v>1.060053133689477</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.056100252512812</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.052830166844693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.061567679239449</v>
+        <v>1.038224611299386</v>
       </c>
       <c r="D4">
-        <v>1.072935494247827</v>
+        <v>1.051078895563923</v>
       </c>
       <c r="E4">
-        <v>1.069123815775926</v>
+        <v>1.038446848342187</v>
       </c>
       <c r="F4">
-        <v>1.080296363549696</v>
+        <v>1.052087302077913</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071747279418289</v>
+        <v>1.06411129095687</v>
       </c>
       <c r="J4">
-        <v>1.079517623800551</v>
+        <v>1.056698613201957</v>
       </c>
       <c r="K4">
-        <v>1.08222667537112</v>
+        <v>1.060597581946723</v>
       </c>
       <c r="L4">
-        <v>1.078453856232783</v>
+        <v>1.048102382899142</v>
       </c>
       <c r="M4">
-        <v>1.089513445633884</v>
+        <v>1.061595237407108</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.057320697553168</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.053916057221045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063108749085884</v>
+        <v>1.039460325114199</v>
       </c>
       <c r="D5">
-        <v>1.074164735186019</v>
+        <v>1.051942387330211</v>
       </c>
       <c r="E5">
-        <v>1.070427127228324</v>
+        <v>1.039470966092924</v>
       </c>
       <c r="F5">
-        <v>1.08164024041743</v>
+        <v>1.052952860003457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072321690816952</v>
+        <v>1.064526173995358</v>
       </c>
       <c r="J5">
-        <v>1.080610090173563</v>
+        <v>1.057476477585036</v>
       </c>
       <c r="K5">
-        <v>1.083239238631694</v>
+        <v>1.061241950655215</v>
       </c>
       <c r="L5">
-        <v>1.079538689323581</v>
+        <v>1.048901994952618</v>
       </c>
       <c r="M5">
-        <v>1.090641555090105</v>
+        <v>1.0622419380859</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.057832506022149</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.054378699019646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.063366345987763</v>
+        <v>1.039675679809073</v>
       </c>
       <c r="D6">
-        <v>1.074370239846578</v>
+        <v>1.052095842825628</v>
       </c>
       <c r="E6">
-        <v>1.070645044904141</v>
+        <v>1.039651847902798</v>
       </c>
       <c r="F6">
-        <v>1.081864941468494</v>
+        <v>1.053104564833057</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072417573839242</v>
+        <v>1.064601005438945</v>
       </c>
       <c r="J6">
-        <v>1.080792646647477</v>
+        <v>1.057615019689214</v>
       </c>
       <c r="K6">
-        <v>1.08340843132593</v>
+        <v>1.061358572438335</v>
       </c>
       <c r="L6">
-        <v>1.079719998044571</v>
+        <v>1.049045144071236</v>
       </c>
       <c r="M6">
-        <v>1.090830101619951</v>
+        <v>1.062356875567039</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.057923469206604</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.054469735352502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.061588349056515</v>
+        <v>1.038264749766314</v>
       </c>
       <c r="D7">
-        <v>1.072951979469024</v>
+        <v>1.051114798806355</v>
       </c>
       <c r="E7">
-        <v>1.069141292343956</v>
+        <v>1.038486536057502</v>
       </c>
       <c r="F7">
-        <v>1.080314384025882</v>
+        <v>1.052117422004456</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071754992674019</v>
+        <v>1.064131980388886</v>
       </c>
       <c r="J7">
-        <v>1.079532280284953</v>
+        <v>1.056732071696478</v>
       </c>
       <c r="K7">
-        <v>1.082240260651397</v>
+        <v>1.060630294211198</v>
       </c>
       <c r="L7">
-        <v>1.078468408436426</v>
+        <v>1.048138781058575</v>
       </c>
       <c r="M7">
-        <v>1.089528578019287</v>
+        <v>1.061622232379496</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.057342061779869</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.053958922079872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053983288425791</v>
+        <v>1.032225398030705</v>
       </c>
       <c r="D8">
-        <v>1.066890658592102</v>
+        <v>1.046915724485442</v>
       </c>
       <c r="E8">
-        <v>1.062718948006531</v>
+        <v>1.033501267446666</v>
       </c>
       <c r="F8">
-        <v>1.07369224705976</v>
+        <v>1.047905841430727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068901679024155</v>
+        <v>1.06209722792382</v>
       </c>
       <c r="J8">
-        <v>1.074133576987199</v>
+        <v>1.052938389220628</v>
       </c>
       <c r="K8">
-        <v>1.077234829257367</v>
+        <v>1.057495590583073</v>
       </c>
       <c r="L8">
-        <v>1.073111437826072</v>
+        <v>1.044245786963419</v>
       </c>
       <c r="M8">
-        <v>1.083958630714337</v>
+        <v>1.058473761914329</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054850310923203</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.051747004154813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039865020305686</v>
+        <v>1.021052849634966</v>
       </c>
       <c r="D9">
-        <v>1.055661917958435</v>
+        <v>1.039167308546427</v>
       </c>
       <c r="E9">
-        <v>1.050837627499233</v>
+        <v>1.024303845348363</v>
       </c>
       <c r="F9">
-        <v>1.061441723469105</v>
+        <v>1.040175426606322</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06353341949906</v>
+        <v>1.058245517776321</v>
       </c>
       <c r="J9">
-        <v>1.064084529809114</v>
+        <v>1.045883470421213</v>
       </c>
       <c r="K9">
-        <v>1.067912151034698</v>
+        <v>1.051655350774949</v>
       </c>
       <c r="L9">
-        <v>1.063156436502179</v>
+        <v>1.037014542920705</v>
       </c>
       <c r="M9">
-        <v>1.073610834230914</v>
+        <v>1.052648659734325</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050240208471073</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.047614556484044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029904048999062</v>
+        <v>1.013372579147535</v>
       </c>
       <c r="D10">
-        <v>1.047760153504531</v>
+        <v>1.033901703917628</v>
       </c>
       <c r="E10">
-        <v>1.042487134979769</v>
+        <v>1.01804572478994</v>
       </c>
       <c r="F10">
-        <v>1.052832038800631</v>
+        <v>1.034987401172524</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059700387347621</v>
+        <v>1.055584523468289</v>
       </c>
       <c r="J10">
-        <v>1.056979463353322</v>
+        <v>1.041065497755745</v>
       </c>
       <c r="K10">
-        <v>1.061317495301493</v>
+        <v>1.047684691958005</v>
       </c>
       <c r="L10">
-        <v>1.056129425217609</v>
+        <v>1.032096626923081</v>
       </c>
       <c r="M10">
-        <v>1.066308700438731</v>
+        <v>1.048752430928501</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.047207538413374</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044823701449218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,81 +910,105 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025444087286794</v>
+        <v>1.011002745519109</v>
       </c>
       <c r="D11">
-        <v>1.044228152492266</v>
+        <v>1.032558789210879</v>
       </c>
       <c r="E11">
-        <v>1.038756929780064</v>
+        <v>1.016415373859151</v>
       </c>
       <c r="F11">
-        <v>1.048986125280278</v>
+        <v>1.034032917673324</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057974052735019</v>
+        <v>1.055021638206797</v>
       </c>
       <c r="J11">
-        <v>1.053795376619004</v>
+        <v>1.039924854297244</v>
       </c>
       <c r="K11">
-        <v>1.058361559096635</v>
+        <v>1.046891750190127</v>
       </c>
       <c r="L11">
-        <v>1.052983176961262</v>
+        <v>1.031034220697861</v>
       </c>
       <c r="M11">
-        <v>1.063039808543072</v>
+        <v>1.048340348492177</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.047313230146231</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.044295505587162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023763840354787</v>
+        <v>1.010473337152406</v>
       </c>
       <c r="D12">
-        <v>1.04289850204953</v>
+        <v>1.032394108114185</v>
       </c>
       <c r="E12">
-        <v>1.037353009412909</v>
+        <v>1.016205782653628</v>
       </c>
       <c r="F12">
-        <v>1.047538667933665</v>
+        <v>1.034143961707945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057322215611373</v>
+        <v>1.05502433983591</v>
       </c>
       <c r="J12">
-        <v>1.052595444933645</v>
+        <v>1.039840966733936</v>
       </c>
       <c r="K12">
-        <v>1.05724753335337</v>
+        <v>1.046925934860579</v>
       </c>
       <c r="L12">
-        <v>1.051797945059621</v>
+        <v>1.031028954862005</v>
       </c>
       <c r="M12">
-        <v>1.061808459028925</v>
+        <v>1.048645003788357</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047877546117445</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.04431967469496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024125354510415</v>
+        <v>1.011358822758955</v>
       </c>
       <c r="D13">
-        <v>1.04318453679775</v>
+        <v>1.033158794461894</v>
       </c>
       <c r="E13">
-        <v>1.037655005693436</v>
+        <v>1.01710863264254</v>
       </c>
       <c r="F13">
-        <v>1.047850028886991</v>
+        <v>1.035119197300072</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057462526640806</v>
+        <v>1.055488029581203</v>
       </c>
       <c r="J13">
-        <v>1.052853631710789</v>
+        <v>1.040599223762165</v>
       </c>
       <c r="K13">
-        <v>1.057487238985512</v>
+        <v>1.047635154377933</v>
       </c>
       <c r="L13">
-        <v>1.052052948849593</v>
+        <v>1.031872278971287</v>
       </c>
       <c r="M13">
-        <v>1.062073381233217</v>
+        <v>1.0495612580837</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04887632570856</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044818643596686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02530568891818</v>
+        <v>1.012614036806476</v>
       </c>
       <c r="D14">
-        <v>1.044118611172275</v>
+        <v>1.034110773681094</v>
       </c>
       <c r="E14">
-        <v>1.038641262882952</v>
+        <v>1.018238160946884</v>
       </c>
       <c r="F14">
-        <v>1.048866871196916</v>
+        <v>1.036188608477174</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057920391518992</v>
+        <v>1.056018250215357</v>
       </c>
       <c r="J14">
-        <v>1.053696547659839</v>
+        <v>1.041506230548145</v>
       </c>
       <c r="K14">
-        <v>1.058269806933082</v>
+        <v>1.048433023137474</v>
       </c>
       <c r="L14">
-        <v>1.052885549702326</v>
+        <v>1.032840666851759</v>
       </c>
       <c r="M14">
-        <v>1.062938380867998</v>
+        <v>1.050474992212264</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.049770619214848</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.045384155291517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02602975299433</v>
+        <v>1.013242075641304</v>
       </c>
       <c r="D15">
-        <v>1.044691743902415</v>
+        <v>1.034561231034702</v>
       </c>
       <c r="E15">
-        <v>1.039246459347411</v>
+        <v>1.018771387909606</v>
       </c>
       <c r="F15">
-        <v>1.049490837142496</v>
+        <v>1.036659642474051</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058201074007933</v>
+        <v>1.056258081331514</v>
       </c>
       <c r="J15">
-        <v>1.054213580766528</v>
+        <v>1.041926337686773</v>
       </c>
       <c r="K15">
-        <v>1.05874981422075</v>
+        <v>1.04879105823578</v>
       </c>
       <c r="L15">
-        <v>1.053396313991039</v>
+        <v>1.03327776683031</v>
       </c>
       <c r="M15">
-        <v>1.063469031526601</v>
+        <v>1.05085353625422</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.050107093990981</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.045643082730386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1175,105 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030196818858621</v>
+        <v>1.016326543853645</v>
       </c>
       <c r="D16">
-        <v>1.047992140548565</v>
+        <v>1.036649629423356</v>
       </c>
       <c r="E16">
-        <v>1.042732188821456</v>
+        <v>1.021239754806683</v>
       </c>
       <c r="F16">
-        <v>1.053084695620055</v>
+        <v>1.038701537999637</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059813505765201</v>
+        <v>1.057313433049923</v>
       </c>
       <c r="J16">
-        <v>1.05718842627978</v>
+        <v>1.043832281077782</v>
       </c>
       <c r="K16">
-        <v>1.061511474377257</v>
+        <v>1.050352428098132</v>
       </c>
       <c r="L16">
-        <v>1.05633596519839</v>
+        <v>1.035200240002057</v>
       </c>
       <c r="M16">
-        <v>1.066523302971935</v>
+        <v>1.052370765623461</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051267892969498</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046750115359824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032770347438496</v>
+        <v>1.018040544425356</v>
       </c>
       <c r="D17">
-        <v>1.050032059526546</v>
+        <v>1.037757864675824</v>
       </c>
       <c r="E17">
-        <v>1.044887275589771</v>
+        <v>1.022549564890288</v>
       </c>
       <c r="F17">
-        <v>1.055306654022315</v>
+        <v>1.039706452991964</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060806706940278</v>
+        <v>1.057845235726449</v>
       </c>
       <c r="J17">
-        <v>1.059024954234703</v>
+        <v>1.044822678440851</v>
       </c>
       <c r="K17">
-        <v>1.063216247825516</v>
+        <v>1.05113473814608</v>
       </c>
       <c r="L17">
-        <v>1.058151523926703</v>
+        <v>1.036173442286086</v>
       </c>
       <c r="M17">
-        <v>1.068409795817231</v>
+        <v>1.053052347647851</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051678654696348</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.0473057702724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034257392414014</v>
+        <v>1.018693664719432</v>
       </c>
       <c r="D18">
-        <v>1.051211329465084</v>
+        <v>1.038075533228428</v>
       </c>
       <c r="E18">
-        <v>1.046133348930551</v>
+        <v>1.022932810174912</v>
       </c>
       <c r="F18">
-        <v>1.056591399583708</v>
+        <v>1.039841413018507</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061379640555163</v>
+        <v>1.057945872545598</v>
       </c>
       <c r="J18">
-        <v>1.060085869893133</v>
+        <v>1.045068586222484</v>
       </c>
       <c r="K18">
-        <v>1.064200995779971</v>
+        <v>1.051267878132226</v>
       </c>
       <c r="L18">
-        <v>1.059200595642445</v>
+        <v>1.036367096036652</v>
       </c>
       <c r="M18">
-        <v>1.069499905646035</v>
+        <v>1.05300613041912</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051406626376567</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.047388435778416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034762098287236</v>
+        <v>1.018404395469032</v>
       </c>
       <c r="D19">
-        <v>1.051611667536258</v>
+        <v>1.037697363231129</v>
       </c>
       <c r="E19">
-        <v>1.04655640392176</v>
+        <v>1.022501855817761</v>
       </c>
       <c r="F19">
-        <v>1.05702758536981</v>
+        <v>1.03919614037387</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061573930455933</v>
+        <v>1.057670081599586</v>
       </c>
       <c r="J19">
-        <v>1.060445898391513</v>
+        <v>1.044659021066997</v>
       </c>
       <c r="K19">
-        <v>1.064535166276726</v>
+        <v>1.050834410398995</v>
       </c>
       <c r="L19">
-        <v>1.059556650223388</v>
+        <v>1.03588063845493</v>
       </c>
       <c r="M19">
-        <v>1.069869897074958</v>
+        <v>1.052309834016983</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050533915732321</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04708827247062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032495696359087</v>
+        <v>1.015438236810513</v>
       </c>
       <c r="D20">
-        <v>1.049814297597398</v>
+        <v>1.035338662241108</v>
       </c>
       <c r="E20">
-        <v>1.044657196155572</v>
+        <v>1.019748979197339</v>
       </c>
       <c r="F20">
-        <v>1.055069434571805</v>
+        <v>1.036389404408321</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060700810279281</v>
+        <v>1.056323810411434</v>
       </c>
       <c r="J20">
-        <v>1.058828984923037</v>
+        <v>1.042386743478945</v>
       </c>
       <c r="K20">
-        <v>1.063034343324152</v>
+        <v>1.048787337900062</v>
       </c>
       <c r="L20">
-        <v>1.057957764118137</v>
+        <v>1.033453233576713</v>
       </c>
       <c r="M20">
-        <v>1.068208460500313</v>
+        <v>1.049821208836927</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.048042915481664</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04564483253054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024958775127095</v>
+        <v>1.009446117263549</v>
       </c>
       <c r="D21">
-        <v>1.043844047779739</v>
+        <v>1.031184214478352</v>
       </c>
       <c r="E21">
-        <v>1.038351351366863</v>
+        <v>1.014820310775459</v>
       </c>
       <c r="F21">
-        <v>1.048567968822282</v>
+        <v>1.032233960610802</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05778585935168</v>
+        <v>1.054177439353827</v>
       </c>
       <c r="J21">
-        <v>1.053448814295062</v>
+        <v>1.038554141165046</v>
       </c>
       <c r="K21">
-        <v>1.058039811761008</v>
+        <v>1.045597934527692</v>
       </c>
       <c r="L21">
-        <v>1.052640835750367</v>
+        <v>1.029526244363225</v>
       </c>
       <c r="M21">
-        <v>1.062684142095534</v>
+        <v>1.046629344640962</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045476372123469</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043393063818445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020082480813703</v>
+        <v>1.005623155564509</v>
       </c>
       <c r="D22">
-        <v>1.039987238185529</v>
+        <v>1.028548241491456</v>
       </c>
       <c r="E22">
-        <v>1.034279755495657</v>
+        <v>1.011690753149745</v>
       </c>
       <c r="F22">
-        <v>1.044370131402247</v>
+        <v>1.029631711826968</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055891454595593</v>
+        <v>1.052807143705407</v>
       </c>
       <c r="J22">
-        <v>1.049965859027713</v>
+        <v>1.036118511375611</v>
       </c>
       <c r="K22">
-        <v>1.054806088309842</v>
+        <v>1.043574601399249</v>
       </c>
       <c r="L22">
-        <v>1.049201396220779</v>
+        <v>1.027034117839062</v>
       </c>
       <c r="M22">
-        <v>1.059111035668279</v>
+        <v>1.044638159497524</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043900491674461</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041949163398898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022681094114839</v>
+        <v>1.007633041315892</v>
       </c>
       <c r="D23">
-        <v>1.042041973157032</v>
+        <v>1.029925771655435</v>
       </c>
       <c r="E23">
-        <v>1.036448733624246</v>
+        <v>1.013327480122276</v>
       </c>
       <c r="F23">
-        <v>1.046606352997799</v>
+        <v>1.030996651051523</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056901771152176</v>
+        <v>1.053521796947917</v>
       </c>
       <c r="J23">
-        <v>1.05182212047262</v>
+        <v>1.037390972249318</v>
       </c>
       <c r="K23">
-        <v>1.056529554338045</v>
+        <v>1.044627181437806</v>
       </c>
       <c r="L23">
-        <v>1.051034219727715</v>
+        <v>1.02833265416196</v>
       </c>
       <c r="M23">
-        <v>1.061015040995505</v>
+        <v>1.045678898874262</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044724162785369</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.04268383403771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032619842665097</v>
+        <v>1.015398325850756</v>
       </c>
       <c r="D24">
-        <v>1.049912727454397</v>
+        <v>1.035273426171196</v>
       </c>
       <c r="E24">
-        <v>1.04476119290802</v>
+        <v>1.019678065147198</v>
       </c>
       <c r="F24">
-        <v>1.055176658616352</v>
+        <v>1.036296419180134</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060748680106289</v>
+        <v>1.056274298535547</v>
       </c>
       <c r="J24">
-        <v>1.058917566771407</v>
+        <v>1.042316248590315</v>
       </c>
       <c r="K24">
-        <v>1.063116567787633</v>
+        <v>1.048708177906038</v>
       </c>
       <c r="L24">
-        <v>1.058045346393909</v>
+        <v>1.033368205166368</v>
       </c>
       <c r="M24">
-        <v>1.068299466859765</v>
+        <v>1.049714762985647</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047918253114781</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045561813508367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04360644309487</v>
+        <v>1.024043655898055</v>
       </c>
       <c r="D25">
-        <v>1.058634411340127</v>
+        <v>1.041250144089502</v>
       </c>
       <c r="E25">
-        <v>1.053981032027617</v>
+        <v>1.026773296597646</v>
       </c>
       <c r="F25">
-        <v>1.064682757729586</v>
+        <v>1.042240243947819</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064964062876243</v>
+        <v>1.059296677412054</v>
       </c>
       <c r="J25">
-        <v>1.066750402715896</v>
+        <v>1.047788090929775</v>
       </c>
       <c r="K25">
-        <v>1.070385920786044</v>
+        <v>1.053240157675809</v>
       </c>
       <c r="L25">
-        <v>1.065795413274422</v>
+        <v>1.038969737035573</v>
       </c>
       <c r="M25">
-        <v>1.076353578750201</v>
+        <v>1.054216404121805</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051480955536837</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04876324249544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030606411529094</v>
+        <v>1.02806120768494</v>
       </c>
       <c r="D2">
-        <v>1.04578164138151</v>
+        <v>1.042680718853894</v>
       </c>
       <c r="E2">
-        <v>1.03215798084577</v>
+        <v>1.030257788822148</v>
       </c>
       <c r="F2">
-        <v>1.046778319624251</v>
+        <v>1.044485974491715</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.061537043498398</v>
+        <v>1.059723337563549</v>
       </c>
       <c r="J2">
-        <v>1.051908697958726</v>
+        <v>1.049433824665404</v>
       </c>
       <c r="K2">
-        <v>1.05663798706763</v>
+        <v>1.053575821136376</v>
       </c>
       <c r="L2">
-        <v>1.043186770869824</v>
+        <v>1.041311084291742</v>
       </c>
       <c r="M2">
-        <v>1.057622269159026</v>
+        <v>1.055358479068097</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054176424272516</v>
+        <v>1.052384817239748</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051118111658937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048961597481589</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025747837089771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035268716140927</v>
+        <v>1.032436022063893</v>
       </c>
       <c r="D3">
-        <v>1.049021214253051</v>
+        <v>1.045600633627732</v>
       </c>
       <c r="E3">
-        <v>1.036004103201976</v>
+        <v>1.033808970926291</v>
       </c>
       <c r="F3">
-        <v>1.05002266439257</v>
+        <v>1.047491480303547</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063118426439459</v>
+        <v>1.061108694559648</v>
       </c>
       <c r="J3">
-        <v>1.054842009375364</v>
+        <v>1.052079875577028</v>
       </c>
       <c r="K3">
-        <v>1.059063048391378</v>
+        <v>1.055681488425626</v>
       </c>
       <c r="L3">
-        <v>1.04619613298899</v>
+        <v>1.044026790190871</v>
       </c>
       <c r="M3">
-        <v>1.060053133689477</v>
+        <v>1.057550726196003</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056100252512812</v>
+        <v>1.05411980386011</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052830166844693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050447543925339</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02625392838465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038224611299386</v>
+        <v>1.035212729615913</v>
       </c>
       <c r="D4">
-        <v>1.051078895563923</v>
+        <v>1.047457872819473</v>
       </c>
       <c r="E4">
-        <v>1.038446848342187</v>
+        <v>1.036068161297288</v>
       </c>
       <c r="F4">
-        <v>1.052087302077913</v>
+        <v>1.04940665542584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.06411129095687</v>
+        <v>1.061978536614815</v>
       </c>
       <c r="J4">
-        <v>1.056698613201957</v>
+        <v>1.053756653578853</v>
       </c>
       <c r="K4">
-        <v>1.060597581946723</v>
+        <v>1.057015373576569</v>
       </c>
       <c r="L4">
-        <v>1.048102382899142</v>
+        <v>1.04574992400787</v>
       </c>
       <c r="M4">
-        <v>1.061595237407108</v>
+        <v>1.058943226063676</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057320697553168</v>
+        <v>1.055221853021878</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053916057221045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.051391647455042</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026572063017913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039460325114199</v>
+        <v>1.036373456086595</v>
       </c>
       <c r="D5">
-        <v>1.051942387330211</v>
+        <v>1.048237522909584</v>
       </c>
       <c r="E5">
-        <v>1.039470966092924</v>
+        <v>1.037015154651044</v>
       </c>
       <c r="F5">
-        <v>1.052952860003457</v>
+        <v>1.050209711201235</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.064526173995358</v>
+        <v>1.062341875849026</v>
       </c>
       <c r="J5">
-        <v>1.057476477585036</v>
+        <v>1.05445912057215</v>
       </c>
       <c r="K5">
-        <v>1.061241950655215</v>
+        <v>1.057575741325115</v>
       </c>
       <c r="L5">
-        <v>1.048901994952618</v>
+        <v>1.046472527638948</v>
       </c>
       <c r="M5">
-        <v>1.0622419380859</v>
+        <v>1.059527311119312</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.057832506022149</v>
+        <v>1.055684107847249</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.054378699019646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051795612336318</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026706590740709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039675679809073</v>
+        <v>1.036574829589964</v>
       </c>
       <c r="D6">
-        <v>1.052095842825628</v>
+        <v>1.04837571291635</v>
       </c>
       <c r="E6">
-        <v>1.039651847902798</v>
+        <v>1.037181189852092</v>
       </c>
       <c r="F6">
-        <v>1.053104564833057</v>
+        <v>1.050349974943158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.064601005438945</v>
+        <v>1.06240724789396</v>
       </c>
       <c r="J6">
-        <v>1.057615019689214</v>
+        <v>1.054583634921816</v>
       </c>
       <c r="K6">
-        <v>1.061358572438335</v>
+        <v>1.057677078633986</v>
       </c>
       <c r="L6">
-        <v>1.049045144071236</v>
+        <v>1.046600865495415</v>
       </c>
       <c r="M6">
-        <v>1.062356875567039</v>
+        <v>1.059630794987871</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.057923469206604</v>
+        <v>1.055766006707743</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054469735352502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051876717003335</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026732674219734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038264749766314</v>
+        <v>1.035247764618205</v>
       </c>
       <c r="D7">
-        <v>1.051114798806355</v>
+        <v>1.047489133456442</v>
       </c>
       <c r="E7">
-        <v>1.038486536057502</v>
+        <v>1.036101295445301</v>
       </c>
       <c r="F7">
-        <v>1.052117422004456</v>
+        <v>1.049433133133509</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064131980388886</v>
+        <v>1.06199616996578</v>
       </c>
       <c r="J7">
-        <v>1.056732071696478</v>
+        <v>1.05378509492619</v>
       </c>
       <c r="K7">
-        <v>1.060630294211198</v>
+        <v>1.057043477061652</v>
       </c>
       <c r="L7">
-        <v>1.048138781058575</v>
+        <v>1.045779829841269</v>
       </c>
       <c r="M7">
-        <v>1.061622232379496</v>
+        <v>1.058966606324959</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057342061779869</v>
+        <v>1.055240356562834</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053958922079872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051433266970002</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026583689893727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032225398030705</v>
+        <v>1.029575933495183</v>
       </c>
       <c r="D8">
-        <v>1.046915724485442</v>
+        <v>1.043700590296281</v>
       </c>
       <c r="E8">
-        <v>1.033501267446666</v>
+        <v>1.031492270440382</v>
       </c>
       <c r="F8">
-        <v>1.047905841430727</v>
+        <v>1.045527847674521</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.06209722792382</v>
+        <v>1.060213222455241</v>
       </c>
       <c r="J8">
-        <v>1.052938389220628</v>
+        <v>1.050359654001915</v>
       </c>
       <c r="K8">
-        <v>1.057495590583073</v>
+        <v>1.054319440715725</v>
       </c>
       <c r="L8">
-        <v>1.044245786963419</v>
+        <v>1.042261908670428</v>
       </c>
       <c r="M8">
-        <v>1.058473761914329</v>
+        <v>1.056124505601676</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054850310923203</v>
+        <v>1.052991065852734</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051747004154813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049512178177514</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025933431387805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021052849634966</v>
+        <v>1.019114791331353</v>
       </c>
       <c r="D9">
-        <v>1.039167308546427</v>
+        <v>1.036734081873235</v>
       </c>
       <c r="E9">
-        <v>1.024303845348363</v>
+        <v>1.023027070353539</v>
       </c>
       <c r="F9">
-        <v>1.040175426606322</v>
+        <v>1.038383797980747</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058245517776321</v>
+        <v>1.05684062247855</v>
       </c>
       <c r="J9">
-        <v>1.045883470421213</v>
+        <v>1.044010155311951</v>
       </c>
       <c r="K9">
-        <v>1.051655350774949</v>
+        <v>1.049258018588326</v>
       </c>
       <c r="L9">
-        <v>1.037014542920705</v>
+        <v>1.035757278958187</v>
       </c>
       <c r="M9">
-        <v>1.052648659734325</v>
+        <v>1.050883375081994</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050240208471073</v>
+        <v>1.048843121267563</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047614556484044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045930114284259</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02469757280763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013372579147535</v>
+        <v>1.011919576008669</v>
       </c>
       <c r="D10">
-        <v>1.033901703917628</v>
+        <v>1.031999807525464</v>
       </c>
       <c r="E10">
-        <v>1.01804572478994</v>
+        <v>1.01726022427822</v>
       </c>
       <c r="F10">
-        <v>1.034987401172524</v>
+        <v>1.033595320024557</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.055584523468289</v>
+        <v>1.054503399443721</v>
       </c>
       <c r="J10">
-        <v>1.041065497755745</v>
+        <v>1.03966813138416</v>
       </c>
       <c r="K10">
-        <v>1.047684691958005</v>
+        <v>1.045814371720183</v>
       </c>
       <c r="L10">
-        <v>1.032096626923081</v>
+        <v>1.031324679632432</v>
       </c>
       <c r="M10">
-        <v>1.048752430928501</v>
+        <v>1.04738338468187</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047207538413374</v>
+        <v>1.046124105489395</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044823701449218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043513573266186</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023866430682053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011002745519109</v>
+        <v>1.009506926479903</v>
       </c>
       <c r="D11">
-        <v>1.032558789210879</v>
+        <v>1.030660760413273</v>
       </c>
       <c r="E11">
-        <v>1.016415373859151</v>
+        <v>1.01552019839104</v>
       </c>
       <c r="F11">
-        <v>1.034032917673324</v>
+        <v>1.032636869853608</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055021638206797</v>
+        <v>1.053932754916659</v>
       </c>
       <c r="J11">
-        <v>1.039924854297244</v>
+        <v>1.038489485436259</v>
       </c>
       <c r="K11">
-        <v>1.046891750190127</v>
+        <v>1.045026732267316</v>
       </c>
       <c r="L11">
-        <v>1.031034220697861</v>
+        <v>1.030155243940499</v>
       </c>
       <c r="M11">
-        <v>1.048340348492177</v>
+        <v>1.046968476202671</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047313230146231</v>
+        <v>1.046228096296747</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044295505587162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042992356060452</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023846913140834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010473337152406</v>
+        <v>1.008867146812044</v>
       </c>
       <c r="D12">
-        <v>1.032394108114185</v>
+        <v>1.030413388295398</v>
       </c>
       <c r="E12">
-        <v>1.016205782653628</v>
+        <v>1.015148568221762</v>
       </c>
       <c r="F12">
-        <v>1.034143961707945</v>
+        <v>1.032680657600731</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05502433983591</v>
+        <v>1.053877760702375</v>
       </c>
       <c r="J12">
-        <v>1.039840966733936</v>
+        <v>1.03830091693146</v>
       </c>
       <c r="K12">
-        <v>1.046925934860579</v>
+        <v>1.044980224933829</v>
       </c>
       <c r="L12">
-        <v>1.031028954862005</v>
+        <v>1.029991188592327</v>
       </c>
       <c r="M12">
-        <v>1.048645003788357</v>
+        <v>1.047207433904424</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047877546117445</v>
+        <v>1.046740824412457</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.04431967469496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042959475199471</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023961453074098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011358822758955</v>
+        <v>1.009578657340072</v>
       </c>
       <c r="D13">
-        <v>1.033158794461894</v>
+        <v>1.031019237581583</v>
       </c>
       <c r="E13">
-        <v>1.01710863264254</v>
+        <v>1.015832837126335</v>
       </c>
       <c r="F13">
-        <v>1.035119197300072</v>
+        <v>1.033532439363624</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.055488029581203</v>
+        <v>1.054238861643424</v>
       </c>
       <c r="J13">
-        <v>1.040599223762165</v>
+        <v>1.038891931651679</v>
       </c>
       <c r="K13">
-        <v>1.047635154377933</v>
+        <v>1.045533224105141</v>
       </c>
       <c r="L13">
-        <v>1.031872278971287</v>
+        <v>1.030619826517455</v>
       </c>
       <c r="M13">
-        <v>1.0495612580837</v>
+        <v>1.048002248999415</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04887632570856</v>
+        <v>1.04764388388722</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044818643596686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043347743132253</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024202144796597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012614036806476</v>
+        <v>1.010686698739744</v>
       </c>
       <c r="D14">
-        <v>1.034110773681094</v>
+        <v>1.031828303976416</v>
       </c>
       <c r="E14">
-        <v>1.018238160946884</v>
+        <v>1.016787768046001</v>
       </c>
       <c r="F14">
-        <v>1.036188608477174</v>
+        <v>1.034492258660832</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056018250215357</v>
+        <v>1.05467874143222</v>
       </c>
       <c r="J14">
-        <v>1.041506230548145</v>
+        <v>1.039656587765893</v>
       </c>
       <c r="K14">
-        <v>1.048433023137474</v>
+        <v>1.046190166915071</v>
       </c>
       <c r="L14">
-        <v>1.032840666851759</v>
+        <v>1.031416450284309</v>
       </c>
       <c r="M14">
-        <v>1.050474992212264</v>
+        <v>1.048807909297285</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049770619214848</v>
+        <v>1.048452917334699</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045384155291517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043813749793158</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024426605725399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013242075641304</v>
+        <v>1.011261975470044</v>
       </c>
       <c r="D15">
-        <v>1.034561231034702</v>
+        <v>1.032224515609626</v>
       </c>
       <c r="E15">
-        <v>1.018771387909606</v>
+        <v>1.017262355687781</v>
       </c>
       <c r="F15">
-        <v>1.036659642474051</v>
+        <v>1.034922160036962</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.056258081331514</v>
+        <v>1.054884907621515</v>
       </c>
       <c r="J15">
-        <v>1.041926337686773</v>
+        <v>1.040025331875108</v>
       </c>
       <c r="K15">
-        <v>1.04879105823578</v>
+        <v>1.046494579353022</v>
       </c>
       <c r="L15">
-        <v>1.03327776683031</v>
+        <v>1.03179574847644</v>
       </c>
       <c r="M15">
-        <v>1.05085353625422</v>
+        <v>1.049145793240534</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050107093990981</v>
+        <v>1.048757288453955</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045643082730386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044035337049047</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024514781463853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016326543853645</v>
+        <v>1.014180314701329</v>
       </c>
       <c r="D16">
-        <v>1.036649629423356</v>
+        <v>1.034122640033462</v>
       </c>
       <c r="E16">
-        <v>1.021239754806683</v>
+        <v>1.019573143483385</v>
       </c>
       <c r="F16">
-        <v>1.038701537999637</v>
+        <v>1.036822567888688</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057313433049923</v>
+        <v>1.055825915264021</v>
       </c>
       <c r="J16">
-        <v>1.043832281077782</v>
+        <v>1.041767378915623</v>
       </c>
       <c r="K16">
-        <v>1.050352428098132</v>
+        <v>1.047867018054575</v>
       </c>
       <c r="L16">
-        <v>1.035200240002057</v>
+        <v>1.033562101160906</v>
       </c>
       <c r="M16">
-        <v>1.052370765623461</v>
+        <v>1.050522530543406</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051267892969498</v>
+        <v>1.049807000289216</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046750115359824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045009088698293</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024829270457802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018040544425356</v>
+        <v>1.015841515194972</v>
       </c>
       <c r="D17">
-        <v>1.037757864675824</v>
+        <v>1.035157821973166</v>
       </c>
       <c r="E17">
-        <v>1.022549564890288</v>
+        <v>1.020850259200835</v>
       </c>
       <c r="F17">
-        <v>1.039706452991964</v>
+        <v>1.037774690427612</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.057845235726449</v>
+        <v>1.056315959947337</v>
       </c>
       <c r="J17">
-        <v>1.044822678440851</v>
+        <v>1.042704249989507</v>
       </c>
       <c r="K17">
-        <v>1.05113473814608</v>
+        <v>1.048576264074824</v>
       </c>
       <c r="L17">
-        <v>1.036173442286086</v>
+        <v>1.034502324306773</v>
       </c>
       <c r="M17">
-        <v>1.053052347647851</v>
+        <v>1.051151295762583</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051678654696348</v>
+        <v>1.050175866272411</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.0473057702724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045513332934679</v>
+      </c>
+      <c r="S17">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T17">
+        <v>1.024953148001862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018693664719432</v>
+        <v>1.016546213145383</v>
       </c>
       <c r="D18">
-        <v>1.038075533228428</v>
+        <v>1.035507162007064</v>
       </c>
       <c r="E18">
-        <v>1.022932810174912</v>
+        <v>1.021320273271193</v>
       </c>
       <c r="F18">
-        <v>1.039841413018507</v>
+        <v>1.037936507614321</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.057945872545598</v>
+        <v>1.05644053588393</v>
       </c>
       <c r="J18">
-        <v>1.045068586222484</v>
+        <v>1.042998375683545</v>
       </c>
       <c r="K18">
-        <v>1.051267878132226</v>
+        <v>1.048739904828709</v>
       </c>
       <c r="L18">
-        <v>1.036367096036652</v>
+        <v>1.034780866473475</v>
       </c>
       <c r="M18">
-        <v>1.05300613041912</v>
+        <v>1.051131032705025</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051406626376567</v>
+        <v>1.049924050943436</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047388435778416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045616419480736</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024905357561782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018404395469032</v>
+        <v>1.016399877521103</v>
       </c>
       <c r="D19">
-        <v>1.037697363231129</v>
+        <v>1.035253140377214</v>
       </c>
       <c r="E19">
-        <v>1.022501855817761</v>
+        <v>1.021078283436086</v>
       </c>
       <c r="F19">
-        <v>1.03919614037387</v>
+        <v>1.037388375566092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.057670081599586</v>
+        <v>1.056246612574057</v>
       </c>
       <c r="J19">
-        <v>1.044659021066997</v>
+        <v>1.042726226426244</v>
       </c>
       <c r="K19">
-        <v>1.050834410398995</v>
+        <v>1.048428458320839</v>
       </c>
       <c r="L19">
-        <v>1.03588063845493</v>
+        <v>1.034480186238952</v>
       </c>
       <c r="M19">
-        <v>1.052309834016983</v>
+        <v>1.05053024802058</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050533915732321</v>
+        <v>1.049126407282803</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04708827247062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045403157108501</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024714362174379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015438236810513</v>
+        <v>1.013842237474494</v>
       </c>
       <c r="D20">
-        <v>1.035338662241108</v>
+        <v>1.033284588479937</v>
       </c>
       <c r="E20">
-        <v>1.019748979197339</v>
+        <v>1.018813830451492</v>
       </c>
       <c r="F20">
-        <v>1.036389404408321</v>
+        <v>1.034882111571576</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.056323810411434</v>
+        <v>1.05514921389725</v>
       </c>
       <c r="J20">
-        <v>1.042386743478945</v>
+        <v>1.040849798420642</v>
       </c>
       <c r="K20">
-        <v>1.048787337900062</v>
+        <v>1.046766372558793</v>
       </c>
       <c r="L20">
-        <v>1.033453233576713</v>
+        <v>1.032533736252608</v>
       </c>
       <c r="M20">
-        <v>1.049821208836927</v>
+        <v>1.048338131530201</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048042915481664</v>
+        <v>1.046869227385935</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04564483253054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044232307575186</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024112223719512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009446117263549</v>
+        <v>1.008273852471406</v>
       </c>
       <c r="D21">
-        <v>1.031184214478352</v>
+        <v>1.029580940074932</v>
       </c>
       <c r="E21">
-        <v>1.014820310775459</v>
+        <v>1.014326529492162</v>
       </c>
       <c r="F21">
-        <v>1.032233960610802</v>
+        <v>1.031067827775062</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054177439353827</v>
+        <v>1.053279273185114</v>
       </c>
       <c r="J21">
-        <v>1.038554141165046</v>
+        <v>1.037429674593422</v>
       </c>
       <c r="K21">
-        <v>1.045597934527692</v>
+        <v>1.044022758193715</v>
       </c>
       <c r="L21">
-        <v>1.029526244363225</v>
+        <v>1.029041471393097</v>
       </c>
       <c r="M21">
-        <v>1.046629344640962</v>
+        <v>1.04548358374082</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045476372123469</v>
+        <v>1.044569584835386</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043393063818445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042296062072123</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023411574285487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005623155564509</v>
+        <v>1.004720010062463</v>
       </c>
       <c r="D22">
-        <v>1.028548241491456</v>
+        <v>1.027230166537807</v>
       </c>
       <c r="E22">
-        <v>1.011690753149745</v>
+        <v>1.011475228605201</v>
       </c>
       <c r="F22">
-        <v>1.029631711826968</v>
+        <v>1.028681865173412</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.052807143705407</v>
+        <v>1.052083497274497</v>
       </c>
       <c r="J22">
-        <v>1.036118511375611</v>
+        <v>1.035254425898155</v>
       </c>
       <c r="K22">
-        <v>1.043574601399249</v>
+        <v>1.042280824110621</v>
       </c>
       <c r="L22">
-        <v>1.027034117839062</v>
+        <v>1.026822735815543</v>
       </c>
       <c r="M22">
-        <v>1.044638159497524</v>
+        <v>1.04370576636377</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043900491674461</v>
+        <v>1.043162568110649</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041949163398898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041049821784189</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022968160715895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007633041315892</v>
+        <v>1.006591790071081</v>
       </c>
       <c r="D23">
-        <v>1.029925771655435</v>
+        <v>1.028460318229004</v>
       </c>
       <c r="E23">
-        <v>1.013327480122276</v>
+        <v>1.012970879908127</v>
       </c>
       <c r="F23">
-        <v>1.030996651051523</v>
+        <v>1.029935200051084</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053521796947917</v>
+        <v>1.052708256492574</v>
       </c>
       <c r="J23">
-        <v>1.037390972249318</v>
+        <v>1.036393379951891</v>
       </c>
       <c r="K23">
-        <v>1.044627181437806</v>
+        <v>1.043188034382944</v>
       </c>
       <c r="L23">
-        <v>1.02833265416196</v>
+        <v>1.027982722660386</v>
       </c>
       <c r="M23">
-        <v>1.045678898874262</v>
+        <v>1.044636440899034</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044724162785369</v>
+        <v>1.04389913152536</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04268383403771</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041680761951693</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023194186296097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015398325850756</v>
+        <v>1.013828324518769</v>
       </c>
       <c r="D24">
-        <v>1.035273426171196</v>
+        <v>1.033241177137173</v>
       </c>
       <c r="E24">
-        <v>1.019678065147198</v>
+        <v>1.0187777045658</v>
       </c>
       <c r="F24">
-        <v>1.036296419180134</v>
+        <v>1.034806494776394</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.056274298535547</v>
+        <v>1.055114323853466</v>
       </c>
       <c r="J24">
-        <v>1.042316248590315</v>
+        <v>1.040804262636551</v>
       </c>
       <c r="K24">
-        <v>1.048708177906038</v>
+        <v>1.046708648101502</v>
       </c>
       <c r="L24">
-        <v>1.033368205166368</v>
+        <v>1.032482896478232</v>
       </c>
       <c r="M24">
-        <v>1.049714762985647</v>
+        <v>1.0482487495229</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047918253114781</v>
+        <v>1.046758012623474</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045561813508367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044161761168763</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024074487880636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024043655898055</v>
+        <v>1.021906249232195</v>
       </c>
       <c r="D25">
-        <v>1.041250144089502</v>
+        <v>1.038601191121044</v>
       </c>
       <c r="E25">
-        <v>1.026773296597646</v>
+        <v>1.025288777892933</v>
       </c>
       <c r="F25">
-        <v>1.042240243947819</v>
+        <v>1.040286157323735</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059296677412054</v>
+        <v>1.057759295929233</v>
       </c>
       <c r="J25">
-        <v>1.047788090929775</v>
+        <v>1.045718220800849</v>
       </c>
       <c r="K25">
-        <v>1.053240157675809</v>
+        <v>1.050628432782089</v>
       </c>
       <c r="L25">
-        <v>1.038969737035573</v>
+        <v>1.037506804167254</v>
       </c>
       <c r="M25">
-        <v>1.054216404121805</v>
+        <v>1.052289690950507</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051480955536837</v>
+        <v>1.049956112464715</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04876324249544</v>
+        <v>1.046930031112891</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025042801028764</v>
       </c>
     </row>
   </sheetData>
